--- a/Mean Rt.xlsx
+++ b/Mean Rt.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haile/Documents/GitHub/R_UF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro5530/Documents/GitHub/R_UF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116FC6A8-1BA6-0C43-89C7-49B7975DC6EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C32CD90-2B5E-2448-A72A-1AF9B12A4C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="1560" windowWidth="26440" windowHeight="15440" activeTab="2" xr2:uid="{28E19DF1-0EE3-FF46-AB53-82F4F0BE90B4}"/>
+    <workbookView xWindow="11720" yWindow="680" windowWidth="26440" windowHeight="15440" activeTab="3" xr2:uid="{28E19DF1-0EE3-FF46-AB53-82F4F0BE90B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>Mean(R)_49049</t>
   </si>
@@ -57,6 +58,9 @@
   </si>
   <si>
     <t>R_29019</t>
+  </si>
+  <si>
+    <t>R_45045</t>
   </si>
 </sst>
 </file>
@@ -426,7 +430,7 @@
   <dimension ref="A1:K1093"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" activeCellId="1" sqref="J1:J1048576 K1:K1048576"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26943,7 +26947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944D5629-4FF2-C441-AFAD-9E55B4490ED1}">
   <dimension ref="A1:J840"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -43753,4 +43757,6710 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E000BD1-FA85-3145-806C-0A2BC161219E}">
+  <dimension ref="D1:E836"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D2" s="2">
+        <v>44159</v>
+      </c>
+      <c r="E2">
+        <v>3.537104306915781</v>
+      </c>
+    </row>
+    <row r="3" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D3" s="2">
+        <v>44160</v>
+      </c>
+      <c r="E3">
+        <v>2.9952836348619272</v>
+      </c>
+    </row>
+    <row r="4" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D4" s="2">
+        <v>44161</v>
+      </c>
+      <c r="E4">
+        <v>2.605004261975854</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D5" s="2">
+        <v>44162</v>
+      </c>
+      <c r="E5">
+        <v>2.3230816099836331</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D6" s="2">
+        <v>44163</v>
+      </c>
+      <c r="E6">
+        <v>2.113621430468327</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D7" s="2">
+        <v>44164</v>
+      </c>
+      <c r="E7">
+        <v>1.9521754381551359</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D8" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E8">
+        <v>1.823191062293527</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D9" s="2">
+        <v>44166</v>
+      </c>
+      <c r="E9">
+        <v>1.715607236468381</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D10" s="2">
+        <v>44167</v>
+      </c>
+      <c r="E10">
+        <v>1.6223657154567279</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D11" s="2">
+        <v>44168</v>
+      </c>
+      <c r="E11">
+        <v>1.5401375597807301</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D12" s="2">
+        <v>44169</v>
+      </c>
+      <c r="E12">
+        <v>1.467677112601526</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D13" s="2">
+        <v>44170</v>
+      </c>
+      <c r="E13">
+        <v>1.404100430028949</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D14" s="2">
+        <v>44171</v>
+      </c>
+      <c r="E14">
+        <v>1.348424466079956</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D15" s="2">
+        <v>44172</v>
+      </c>
+      <c r="E15">
+        <v>1.299578399246144</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D16" s="2">
+        <v>44173</v>
+      </c>
+      <c r="E16">
+        <v>1.256493201590418</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D17" s="2">
+        <v>44174</v>
+      </c>
+      <c r="E17">
+        <v>1.2181679615220651</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D18" s="2">
+        <v>44175</v>
+      </c>
+      <c r="E18">
+        <v>1.18371337763441</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D19" s="2">
+        <v>44176</v>
+      </c>
+      <c r="E19">
+        <v>1.152453532871125</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D20" s="2">
+        <v>44177</v>
+      </c>
+      <c r="E20">
+        <v>1.1241409209386011</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D21" s="2">
+        <v>44178</v>
+      </c>
+      <c r="E21">
+        <v>1.0987996461617251</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D22" s="2">
+        <v>44179</v>
+      </c>
+      <c r="E22">
+        <v>1.0765568742838709</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D23" s="2">
+        <v>44180</v>
+      </c>
+      <c r="E23">
+        <v>1.0575782089519321</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D24" s="2">
+        <v>44181</v>
+      </c>
+      <c r="E24">
+        <v>1.0421294772067049</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D25" s="2">
+        <v>44182</v>
+      </c>
+      <c r="E25">
+        <v>1.030797488412931</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D26" s="2">
+        <v>44183</v>
+      </c>
+      <c r="E26">
+        <v>1.0243947638609401</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D27" s="2">
+        <v>44184</v>
+      </c>
+      <c r="E27">
+        <v>1.023494798778404</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D28" s="2">
+        <v>44185</v>
+      </c>
+      <c r="E28">
+        <v>1.027932038091669</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D29" s="2">
+        <v>44186</v>
+      </c>
+      <c r="E29">
+        <v>1.0370784114819021</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D30" s="2">
+        <v>44187</v>
+      </c>
+      <c r="E30">
+        <v>1.0499418378573331</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D31" s="2">
+        <v>44188</v>
+      </c>
+      <c r="E31">
+        <v>1.0651071783818331</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D32" s="2">
+        <v>44189</v>
+      </c>
+      <c r="E32">
+        <v>1.080652407971384</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D33" s="2">
+        <v>44190</v>
+      </c>
+      <c r="E33">
+        <v>1.094537675654824</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D34" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E34">
+        <v>1.1056003755890009</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D35" s="2">
+        <v>44192</v>
+      </c>
+      <c r="E35">
+        <v>1.114219587795366</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D36" s="2">
+        <v>44193</v>
+      </c>
+      <c r="E36">
+        <v>1.1211828408154589</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D37" s="2">
+        <v>44194</v>
+      </c>
+      <c r="E37">
+        <v>1.126978987463386</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D38" s="2">
+        <v>44195</v>
+      </c>
+      <c r="E38">
+        <v>1.1316901137863951</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D39" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E39">
+        <v>1.1351119178422071</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D40" s="2">
+        <v>44197</v>
+      </c>
+      <c r="E40">
+        <v>1.1368640272193751</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D41" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E41">
+        <v>1.136273583548314</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D42" s="2">
+        <v>44199</v>
+      </c>
+      <c r="E42">
+        <v>1.1324035011085809</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D43" s="2">
+        <v>44200</v>
+      </c>
+      <c r="E43">
+        <v>1.1247533726301271</v>
+      </c>
+    </row>
+    <row r="44" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D44" s="2">
+        <v>44201</v>
+      </c>
+      <c r="E44">
+        <v>1.1135936339721819</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D45" s="2">
+        <v>44202</v>
+      </c>
+      <c r="E45">
+        <v>1.0997970547401099</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D46" s="2">
+        <v>44203</v>
+      </c>
+      <c r="E46">
+        <v>1.0843419485044821</v>
+      </c>
+    </row>
+    <row r="47" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D47" s="2">
+        <v>44204</v>
+      </c>
+      <c r="E47">
+        <v>1.067985578045656</v>
+      </c>
+    </row>
+    <row r="48" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D48" s="2">
+        <v>44205</v>
+      </c>
+      <c r="E48">
+        <v>1.051173432708399</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D49" s="2">
+        <v>44206</v>
+      </c>
+      <c r="E49">
+        <v>1.0340994939547909</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D50" s="2">
+        <v>44207</v>
+      </c>
+      <c r="E50">
+        <v>1.0168383944780519</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D51" s="2">
+        <v>44208</v>
+      </c>
+      <c r="E51">
+        <v>0.99951220495608406</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D52" s="2">
+        <v>44209</v>
+      </c>
+      <c r="E52">
+        <v>0.98245884960361096</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D53" s="2">
+        <v>44210</v>
+      </c>
+      <c r="E53">
+        <v>0.96642354420920129</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D54" s="2">
+        <v>44211</v>
+      </c>
+      <c r="E54">
+        <v>0.95244771414073204</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D55" s="2">
+        <v>44212</v>
+      </c>
+      <c r="E55">
+        <v>0.94139458761881156</v>
+      </c>
+    </row>
+    <row r="56" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D56" s="2">
+        <v>44213</v>
+      </c>
+      <c r="E56">
+        <v>0.93369559294014792</v>
+      </c>
+    </row>
+    <row r="57" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D57" s="2">
+        <v>44214</v>
+      </c>
+      <c r="E57">
+        <v>0.92968349522044569</v>
+      </c>
+    </row>
+    <row r="58" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D58" s="2">
+        <v>44215</v>
+      </c>
+      <c r="E58">
+        <v>0.92933988786866728</v>
+      </c>
+    </row>
+    <row r="59" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D59" s="2">
+        <v>44216</v>
+      </c>
+      <c r="E59">
+        <v>0.93208114431034517</v>
+      </c>
+    </row>
+    <row r="60" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D60" s="2">
+        <v>44217</v>
+      </c>
+      <c r="E60">
+        <v>0.93674679024923657</v>
+      </c>
+    </row>
+    <row r="61" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D61" s="2">
+        <v>44218</v>
+      </c>
+      <c r="E61">
+        <v>0.94185221874227643</v>
+      </c>
+    </row>
+    <row r="62" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D62" s="2">
+        <v>44219</v>
+      </c>
+      <c r="E62">
+        <v>0.94617527828577175</v>
+      </c>
+    </row>
+    <row r="63" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D63" s="2">
+        <v>44220</v>
+      </c>
+      <c r="E63">
+        <v>0.94905342962060057</v>
+      </c>
+    </row>
+    <row r="64" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D64" s="2">
+        <v>44221</v>
+      </c>
+      <c r="E64">
+        <v>0.94994559468262485</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D65" s="2">
+        <v>44222</v>
+      </c>
+      <c r="E65">
+        <v>0.94855956974904432</v>
+      </c>
+    </row>
+    <row r="66" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D66" s="2">
+        <v>44223</v>
+      </c>
+      <c r="E66">
+        <v>0.94493337341799744</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D67" s="2">
+        <v>44224</v>
+      </c>
+      <c r="E67">
+        <v>0.93912709926717897</v>
+      </c>
+    </row>
+    <row r="68" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D68" s="2">
+        <v>44225</v>
+      </c>
+      <c r="E68">
+        <v>0.93116292267480816</v>
+      </c>
+    </row>
+    <row r="69" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D69" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E69">
+        <v>0.92119588714409573</v>
+      </c>
+    </row>
+    <row r="70" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D70" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E70">
+        <v>0.90957093971183689</v>
+      </c>
+    </row>
+    <row r="71" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D71" s="2">
+        <v>44228</v>
+      </c>
+      <c r="E71">
+        <v>0.8967905798082878</v>
+      </c>
+    </row>
+    <row r="72" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D72" s="2">
+        <v>44229</v>
+      </c>
+      <c r="E72">
+        <v>0.8834488631955747</v>
+      </c>
+    </row>
+    <row r="73" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D73" s="2">
+        <v>44230</v>
+      </c>
+      <c r="E73">
+        <v>0.87019692798183246</v>
+      </c>
+    </row>
+    <row r="74" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D74" s="2">
+        <v>44231</v>
+      </c>
+      <c r="E74">
+        <v>0.85801968520941907</v>
+      </c>
+    </row>
+    <row r="75" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D75" s="2">
+        <v>44232</v>
+      </c>
+      <c r="E75">
+        <v>0.848144736939767</v>
+      </c>
+    </row>
+    <row r="76" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D76" s="2">
+        <v>44233</v>
+      </c>
+      <c r="E76">
+        <v>0.8415813327161844</v>
+      </c>
+    </row>
+    <row r="77" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D77" s="2">
+        <v>44234</v>
+      </c>
+      <c r="E77">
+        <v>0.83881606623931804</v>
+      </c>
+    </row>
+    <row r="78" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D78" s="2">
+        <v>44235</v>
+      </c>
+      <c r="E78">
+        <v>0.84018167151399992</v>
+      </c>
+    </row>
+    <row r="79" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D79" s="2">
+        <v>44236</v>
+      </c>
+      <c r="E79">
+        <v>0.84588450545377358</v>
+      </c>
+    </row>
+    <row r="80" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D80" s="2">
+        <v>44237</v>
+      </c>
+      <c r="E80">
+        <v>0.85585204687213623</v>
+      </c>
+    </row>
+    <row r="81" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D81" s="2">
+        <v>44238</v>
+      </c>
+      <c r="E81">
+        <v>0.86963221515305544</v>
+      </c>
+    </row>
+    <row r="82" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D82" s="2">
+        <v>44239</v>
+      </c>
+      <c r="E82">
+        <v>0.88638744586907303</v>
+      </c>
+    </row>
+    <row r="83" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D83" s="2">
+        <v>44240</v>
+      </c>
+      <c r="E83">
+        <v>0.90501958212684963</v>
+      </c>
+    </row>
+    <row r="84" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D84" s="2">
+        <v>44241</v>
+      </c>
+      <c r="E84">
+        <v>0.92429948812143936</v>
+      </c>
+    </row>
+    <row r="85" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D85" s="2">
+        <v>44242</v>
+      </c>
+      <c r="E85">
+        <v>0.94238997132953095</v>
+      </c>
+    </row>
+    <row r="86" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D86" s="2">
+        <v>44243</v>
+      </c>
+      <c r="E86">
+        <v>0.95708274580868469</v>
+      </c>
+    </row>
+    <row r="87" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D87" s="2">
+        <v>44244</v>
+      </c>
+      <c r="E87">
+        <v>0.96658422193301874</v>
+      </c>
+    </row>
+    <row r="88" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D88" s="2">
+        <v>44245</v>
+      </c>
+      <c r="E88">
+        <v>0.97017361486308806</v>
+      </c>
+    </row>
+    <row r="89" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D89" s="2">
+        <v>44246</v>
+      </c>
+      <c r="E89">
+        <v>0.96760513191355957</v>
+      </c>
+    </row>
+    <row r="90" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D90" s="2">
+        <v>44247</v>
+      </c>
+      <c r="E90">
+        <v>0.95907581200895031</v>
+      </c>
+    </row>
+    <row r="91" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D91" s="2">
+        <v>44248</v>
+      </c>
+      <c r="E91">
+        <v>0.9453754729841376</v>
+      </c>
+    </row>
+    <row r="92" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D92" s="2">
+        <v>44249</v>
+      </c>
+      <c r="E92">
+        <v>0.92785317762538722</v>
+      </c>
+    </row>
+    <row r="93" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D93" s="2">
+        <v>44250</v>
+      </c>
+      <c r="E93">
+        <v>0.90817864138861659</v>
+      </c>
+    </row>
+    <row r="94" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D94" s="2">
+        <v>44251</v>
+      </c>
+      <c r="E94">
+        <v>0.88786899622997151</v>
+      </c>
+    </row>
+    <row r="95" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D95" s="2">
+        <v>44252</v>
+      </c>
+      <c r="E95">
+        <v>0.86788453040147606</v>
+      </c>
+    </row>
+    <row r="96" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D96" s="2">
+        <v>44253</v>
+      </c>
+      <c r="E96">
+        <v>0.84938793806893986</v>
+      </c>
+    </row>
+    <row r="97" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D97" s="2">
+        <v>44254</v>
+      </c>
+      <c r="E97">
+        <v>0.83372646581293675</v>
+      </c>
+    </row>
+    <row r="98" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D98" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E98">
+        <v>0.82198966638025772</v>
+      </c>
+    </row>
+    <row r="99" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D99" s="2">
+        <v>44256</v>
+      </c>
+      <c r="E99">
+        <v>0.81454886920924552</v>
+      </c>
+    </row>
+    <row r="100" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D100" s="2">
+        <v>44257</v>
+      </c>
+      <c r="E100">
+        <v>0.81123751044823944</v>
+      </c>
+    </row>
+    <row r="101" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D101" s="2">
+        <v>44258</v>
+      </c>
+      <c r="E101">
+        <v>0.81165953023477444</v>
+      </c>
+    </row>
+    <row r="102" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D102" s="2">
+        <v>44259</v>
+      </c>
+      <c r="E102">
+        <v>0.81531702757622482</v>
+      </c>
+    </row>
+    <row r="103" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D103" s="2">
+        <v>44260</v>
+      </c>
+      <c r="E103">
+        <v>0.82163778598812509</v>
+      </c>
+    </row>
+    <row r="104" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D104" s="2">
+        <v>44261</v>
+      </c>
+      <c r="E104">
+        <v>0.83001244559913601</v>
+      </c>
+    </row>
+    <row r="105" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D105" s="2">
+        <v>44262</v>
+      </c>
+      <c r="E105">
+        <v>0.83996793733759678</v>
+      </c>
+    </row>
+    <row r="106" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D106" s="2">
+        <v>44263</v>
+      </c>
+      <c r="E106">
+        <v>0.85145937233842151</v>
+      </c>
+    </row>
+    <row r="107" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D107" s="2">
+        <v>44264</v>
+      </c>
+      <c r="E107">
+        <v>0.86441793247302467</v>
+      </c>
+    </row>
+    <row r="108" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D108" s="2">
+        <v>44265</v>
+      </c>
+      <c r="E108">
+        <v>0.8782680904053658</v>
+      </c>
+    </row>
+    <row r="109" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D109" s="2">
+        <v>44266</v>
+      </c>
+      <c r="E109">
+        <v>0.89200731871034156</v>
+      </c>
+    </row>
+    <row r="110" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D110" s="2">
+        <v>44267</v>
+      </c>
+      <c r="E110">
+        <v>0.90461759556354004</v>
+      </c>
+    </row>
+    <row r="111" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D111" s="2">
+        <v>44268</v>
+      </c>
+      <c r="E111">
+        <v>0.91487012248040689</v>
+      </c>
+    </row>
+    <row r="112" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D112" s="2">
+        <v>44269</v>
+      </c>
+      <c r="E112">
+        <v>0.92180375993754127</v>
+      </c>
+    </row>
+    <row r="113" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D113" s="2">
+        <v>44270</v>
+      </c>
+      <c r="E113">
+        <v>0.92525287025889547</v>
+      </c>
+    </row>
+    <row r="114" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D114" s="2">
+        <v>44271</v>
+      </c>
+      <c r="E114">
+        <v>0.92601428083636794</v>
+      </c>
+    </row>
+    <row r="115" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D115" s="2">
+        <v>44272</v>
+      </c>
+      <c r="E115">
+        <v>0.925621376331348</v>
+      </c>
+    </row>
+    <row r="116" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D116" s="2">
+        <v>44273</v>
+      </c>
+      <c r="E116">
+        <v>0.92571146502781054</v>
+      </c>
+    </row>
+    <row r="117" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D117" s="2">
+        <v>44274</v>
+      </c>
+      <c r="E117">
+        <v>0.92735546210797526</v>
+      </c>
+    </row>
+    <row r="118" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D118" s="2">
+        <v>44275</v>
+      </c>
+      <c r="E118">
+        <v>0.93139632992534094</v>
+      </c>
+    </row>
+    <row r="119" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D119" s="2">
+        <v>44276</v>
+      </c>
+      <c r="E119">
+        <v>0.93822986495177663</v>
+      </c>
+    </row>
+    <row r="120" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D120" s="2">
+        <v>44277</v>
+      </c>
+      <c r="E120">
+        <v>0.9476675452051585</v>
+      </c>
+    </row>
+    <row r="121" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D121" s="2">
+        <v>44278</v>
+      </c>
+      <c r="E121">
+        <v>0.95913895297321949</v>
+      </c>
+    </row>
+    <row r="122" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D122" s="2">
+        <v>44279</v>
+      </c>
+      <c r="E122">
+        <v>0.97190927792115944</v>
+      </c>
+    </row>
+    <row r="123" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D123" s="2">
+        <v>44280</v>
+      </c>
+      <c r="E123">
+        <v>0.98536640016598676</v>
+      </c>
+    </row>
+    <row r="124" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D124" s="2">
+        <v>44281</v>
+      </c>
+      <c r="E124">
+        <v>0.9992048418079682</v>
+      </c>
+    </row>
+    <row r="125" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D125" s="2">
+        <v>44282</v>
+      </c>
+      <c r="E125">
+        <v>1.0134383662792641</v>
+      </c>
+    </row>
+    <row r="126" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D126" s="2">
+        <v>44283</v>
+      </c>
+      <c r="E126">
+        <v>1.028236906432022</v>
+      </c>
+    </row>
+    <row r="127" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D127" s="2">
+        <v>44284</v>
+      </c>
+      <c r="E127">
+        <v>1.0435929287160439</v>
+      </c>
+    </row>
+    <row r="128" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D128" s="2">
+        <v>44285</v>
+      </c>
+      <c r="E128">
+        <v>1.0589920373101089</v>
+      </c>
+    </row>
+    <row r="129" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D129" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E129">
+        <v>1.073441711670615</v>
+      </c>
+    </row>
+    <row r="130" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D130" s="2">
+        <v>44287</v>
+      </c>
+      <c r="E130">
+        <v>1.0857544716789489</v>
+      </c>
+    </row>
+    <row r="131" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D131" s="2">
+        <v>44288</v>
+      </c>
+      <c r="E131">
+        <v>1.0951416799998219</v>
+      </c>
+    </row>
+    <row r="132" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D132" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E132">
+        <v>1.1019205783222581</v>
+      </c>
+    </row>
+    <row r="133" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D133" s="2">
+        <v>44290</v>
+      </c>
+      <c r="E133">
+        <v>1.107083214825147</v>
+      </c>
+    </row>
+    <row r="134" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D134" s="2">
+        <v>44291</v>
+      </c>
+      <c r="E134">
+        <v>1.111527867012315</v>
+      </c>
+    </row>
+    <row r="135" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D135" s="2">
+        <v>44292</v>
+      </c>
+      <c r="E135">
+        <v>1.1157283042904871</v>
+      </c>
+    </row>
+    <row r="136" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D136" s="2">
+        <v>44293</v>
+      </c>
+      <c r="E136">
+        <v>1.1197145860595421</v>
+      </c>
+    </row>
+    <row r="137" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D137" s="2">
+        <v>44294</v>
+      </c>
+      <c r="E137">
+        <v>1.1231341762586511</v>
+      </c>
+    </row>
+    <row r="138" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D138" s="2">
+        <v>44295</v>
+      </c>
+      <c r="E138">
+        <v>1.1252143674478261</v>
+      </c>
+    </row>
+    <row r="139" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D139" s="2">
+        <v>44296</v>
+      </c>
+      <c r="E139">
+        <v>1.124601795798756</v>
+      </c>
+    </row>
+    <row r="140" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D140" s="2">
+        <v>44297</v>
+      </c>
+      <c r="E140">
+        <v>1.1200407412180431</v>
+      </c>
+    </row>
+    <row r="141" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D141" s="2">
+        <v>44298</v>
+      </c>
+      <c r="E141">
+        <v>1.1111303672972641</v>
+      </c>
+    </row>
+    <row r="142" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D142" s="2">
+        <v>44299</v>
+      </c>
+      <c r="E142">
+        <v>1.0984894361465181</v>
+      </c>
+    </row>
+    <row r="143" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D143" s="2">
+        <v>44300</v>
+      </c>
+      <c r="E143">
+        <v>1.0834286732039891</v>
+      </c>
+    </row>
+    <row r="144" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D144" s="2">
+        <v>44301</v>
+      </c>
+      <c r="E144">
+        <v>1.067302184055376</v>
+      </c>
+    </row>
+    <row r="145" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D145" s="2">
+        <v>44302</v>
+      </c>
+      <c r="E145">
+        <v>1.051070233103869</v>
+      </c>
+    </row>
+    <row r="146" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D146" s="2">
+        <v>44303</v>
+      </c>
+      <c r="E146">
+        <v>1.035176357879058</v>
+      </c>
+    </row>
+    <row r="147" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D147" s="2">
+        <v>44304</v>
+      </c>
+      <c r="E147">
+        <v>1.0196251603244879</v>
+      </c>
+    </row>
+    <row r="148" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D148" s="2">
+        <v>44305</v>
+      </c>
+      <c r="E148">
+        <v>1.004170689568328</v>
+      </c>
+    </row>
+    <row r="149" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D149" s="2">
+        <v>44306</v>
+      </c>
+      <c r="E149">
+        <v>0.98854105700374317</v>
+      </c>
+    </row>
+    <row r="150" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D150" s="2">
+        <v>44307</v>
+      </c>
+      <c r="E150">
+        <v>0.97265945070658977</v>
+      </c>
+    </row>
+    <row r="151" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D151" s="2">
+        <v>44308</v>
+      </c>
+      <c r="E151">
+        <v>0.95688973959530954</v>
+      </c>
+    </row>
+    <row r="152" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D152" s="2">
+        <v>44309</v>
+      </c>
+      <c r="E152">
+        <v>0.94189272761572418</v>
+      </c>
+    </row>
+    <row r="153" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D153" s="2">
+        <v>44310</v>
+      </c>
+      <c r="E153">
+        <v>0.92810289704070181</v>
+      </c>
+    </row>
+    <row r="154" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D154" s="2">
+        <v>44311</v>
+      </c>
+      <c r="E154">
+        <v>0.91564588368798439</v>
+      </c>
+    </row>
+    <row r="155" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D155" s="2">
+        <v>44312</v>
+      </c>
+      <c r="E155">
+        <v>0.90447434472122235</v>
+      </c>
+    </row>
+    <row r="156" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D156" s="2">
+        <v>44313</v>
+      </c>
+      <c r="E156">
+        <v>0.89435740010023856</v>
+      </c>
+    </row>
+    <row r="157" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D157" s="2">
+        <v>44314</v>
+      </c>
+      <c r="E157">
+        <v>0.88484408523253133</v>
+      </c>
+    </row>
+    <row r="158" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D158" s="2">
+        <v>44315</v>
+      </c>
+      <c r="E158">
+        <v>0.8753159205133485</v>
+      </c>
+    </row>
+    <row r="159" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D159" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E159">
+        <v>0.86527289983692257</v>
+      </c>
+    </row>
+    <row r="160" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D160" s="2">
+        <v>44317</v>
+      </c>
+      <c r="E160">
+        <v>0.85486608274540576</v>
+      </c>
+    </row>
+    <row r="161" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D161" s="2">
+        <v>44318</v>
+      </c>
+      <c r="E161">
+        <v>0.84483886502836825</v>
+      </c>
+    </row>
+    <row r="162" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D162" s="2">
+        <v>44319</v>
+      </c>
+      <c r="E162">
+        <v>0.83609842090509467</v>
+      </c>
+    </row>
+    <row r="163" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D163" s="2">
+        <v>44320</v>
+      </c>
+      <c r="E163">
+        <v>0.82936099350596049</v>
+      </c>
+    </row>
+    <row r="164" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D164" s="2">
+        <v>44321</v>
+      </c>
+      <c r="E164">
+        <v>0.82491075483440313</v>
+      </c>
+    </row>
+    <row r="165" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D165" s="2">
+        <v>44322</v>
+      </c>
+      <c r="E165">
+        <v>0.82275162792379275</v>
+      </c>
+    </row>
+    <row r="166" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D166" s="2">
+        <v>44323</v>
+      </c>
+      <c r="E166">
+        <v>0.82278254477028534</v>
+      </c>
+    </row>
+    <row r="167" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D167" s="2">
+        <v>44324</v>
+      </c>
+      <c r="E167">
+        <v>0.82486645105712286</v>
+      </c>
+    </row>
+    <row r="168" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D168" s="2">
+        <v>44325</v>
+      </c>
+      <c r="E168">
+        <v>0.82883461084210674</v>
+      </c>
+    </row>
+    <row r="169" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D169" s="2">
+        <v>44326</v>
+      </c>
+      <c r="E169">
+        <v>0.8344788646058332</v>
+      </c>
+    </row>
+    <row r="170" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D170" s="2">
+        <v>44327</v>
+      </c>
+      <c r="E170">
+        <v>0.84158652328378925</v>
+      </c>
+    </row>
+    <row r="171" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D171" s="2">
+        <v>44328</v>
+      </c>
+      <c r="E171">
+        <v>0.84999598816713007</v>
+      </c>
+    </row>
+    <row r="172" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D172" s="2">
+        <v>44329</v>
+      </c>
+      <c r="E172">
+        <v>0.85928786669088975</v>
+      </c>
+    </row>
+    <row r="173" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D173" s="2">
+        <v>44330</v>
+      </c>
+      <c r="E173">
+        <v>0.86861595604339981</v>
+      </c>
+    </row>
+    <row r="174" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D174" s="2">
+        <v>44331</v>
+      </c>
+      <c r="E174">
+        <v>0.87693648395284551</v>
+      </c>
+    </row>
+    <row r="175" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D175" s="2">
+        <v>44332</v>
+      </c>
+      <c r="E175">
+        <v>0.88346529375693672</v>
+      </c>
+    </row>
+    <row r="176" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D176" s="2">
+        <v>44333</v>
+      </c>
+      <c r="E176">
+        <v>0.88758829926505667</v>
+      </c>
+    </row>
+    <row r="177" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D177" s="2">
+        <v>44334</v>
+      </c>
+      <c r="E177">
+        <v>0.8889959757970689</v>
+      </c>
+    </row>
+    <row r="178" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D178" s="2">
+        <v>44335</v>
+      </c>
+      <c r="E178">
+        <v>0.88787479537427005</v>
+      </c>
+    </row>
+    <row r="179" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D179" s="2">
+        <v>44336</v>
+      </c>
+      <c r="E179">
+        <v>0.88494659221803373</v>
+      </c>
+    </row>
+    <row r="180" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D180" s="2">
+        <v>44337</v>
+      </c>
+      <c r="E180">
+        <v>0.88130751379836314</v>
+      </c>
+    </row>
+    <row r="181" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D181" s="2">
+        <v>44338</v>
+      </c>
+      <c r="E181">
+        <v>0.87799831971423214</v>
+      </c>
+    </row>
+    <row r="182" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D182" s="2">
+        <v>44339</v>
+      </c>
+      <c r="E182">
+        <v>0.8754869308761557</v>
+      </c>
+    </row>
+    <row r="183" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D183" s="2">
+        <v>44340</v>
+      </c>
+      <c r="E183">
+        <v>0.8739429078337011</v>
+      </c>
+    </row>
+    <row r="184" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D184" s="2">
+        <v>44341</v>
+      </c>
+      <c r="E184">
+        <v>0.87331922613671564</v>
+      </c>
+    </row>
+    <row r="185" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D185" s="2">
+        <v>44342</v>
+      </c>
+      <c r="E185">
+        <v>0.87339996113144303</v>
+      </c>
+    </row>
+    <row r="186" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D186" s="2">
+        <v>44343</v>
+      </c>
+      <c r="E186">
+        <v>0.87396945600222831</v>
+      </c>
+    </row>
+    <row r="187" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D187" s="2">
+        <v>44344</v>
+      </c>
+      <c r="E187">
+        <v>0.8748891864599655</v>
+      </c>
+    </row>
+    <row r="188" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D188" s="2">
+        <v>44345</v>
+      </c>
+      <c r="E188">
+        <v>0.87614759962347433</v>
+      </c>
+    </row>
+    <row r="189" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D189" s="2">
+        <v>44346</v>
+      </c>
+      <c r="E189">
+        <v>0.87787930879388443</v>
+      </c>
+    </row>
+    <row r="190" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D190" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E190">
+        <v>0.88033147875832041</v>
+      </c>
+    </row>
+    <row r="191" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D191" s="2">
+        <v>44348</v>
+      </c>
+      <c r="E191">
+        <v>0.88376049809363</v>
+      </c>
+    </row>
+    <row r="192" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D192" s="2">
+        <v>44349</v>
+      </c>
+      <c r="E192">
+        <v>0.88823188352307847</v>
+      </c>
+    </row>
+    <row r="193" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D193" s="2">
+        <v>44350</v>
+      </c>
+      <c r="E193">
+        <v>0.89339241288657811</v>
+      </c>
+    </row>
+    <row r="194" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D194" s="2">
+        <v>44351</v>
+      </c>
+      <c r="E194">
+        <v>0.8984972721077733</v>
+      </c>
+    </row>
+    <row r="195" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D195" s="2">
+        <v>44352</v>
+      </c>
+      <c r="E195">
+        <v>0.90262805856701145</v>
+      </c>
+    </row>
+    <row r="196" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D196" s="2">
+        <v>44353</v>
+      </c>
+      <c r="E196">
+        <v>0.9050729773106817</v>
+      </c>
+    </row>
+    <row r="197" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D197" s="2">
+        <v>44354</v>
+      </c>
+      <c r="E197">
+        <v>0.90548110179378183</v>
+      </c>
+    </row>
+    <row r="198" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D198" s="2">
+        <v>44355</v>
+      </c>
+      <c r="E198">
+        <v>0.90371321319382725</v>
+      </c>
+    </row>
+    <row r="199" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D199" s="2">
+        <v>44356</v>
+      </c>
+      <c r="E199">
+        <v>0.89986353323602475</v>
+      </c>
+    </row>
+    <row r="200" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D200" s="2">
+        <v>44357</v>
+      </c>
+      <c r="E200">
+        <v>0.89427409440806716</v>
+      </c>
+    </row>
+    <row r="201" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D201" s="2">
+        <v>44358</v>
+      </c>
+      <c r="E201">
+        <v>0.88749210284359337</v>
+      </c>
+    </row>
+    <row r="202" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D202" s="2">
+        <v>44359</v>
+      </c>
+      <c r="E202">
+        <v>0.88012064278219049</v>
+      </c>
+    </row>
+    <row r="203" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D203" s="2">
+        <v>44360</v>
+      </c>
+      <c r="E203">
+        <v>0.87251113099726085</v>
+      </c>
+    </row>
+    <row r="204" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D204" s="2">
+        <v>44361</v>
+      </c>
+      <c r="E204">
+        <v>0.86472020110310421</v>
+      </c>
+    </row>
+    <row r="205" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D205" s="2">
+        <v>44362</v>
+      </c>
+      <c r="E205">
+        <v>0.85679349962073925</v>
+      </c>
+    </row>
+    <row r="206" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D206" s="2">
+        <v>44363</v>
+      </c>
+      <c r="E206">
+        <v>0.84879604868828906</v>
+      </c>
+    </row>
+    <row r="207" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D207" s="2">
+        <v>44364</v>
+      </c>
+      <c r="E207">
+        <v>0.84069783833731515</v>
+      </c>
+    </row>
+    <row r="208" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D208" s="2">
+        <v>44365</v>
+      </c>
+      <c r="E208">
+        <v>0.83203173871583314</v>
+      </c>
+    </row>
+    <row r="209" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D209" s="2">
+        <v>44366</v>
+      </c>
+      <c r="E209">
+        <v>0.82214439614824031</v>
+      </c>
+    </row>
+    <row r="210" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D210" s="2">
+        <v>44367</v>
+      </c>
+      <c r="E210">
+        <v>0.81056780345791679</v>
+      </c>
+    </row>
+    <row r="211" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D211" s="2">
+        <v>44368</v>
+      </c>
+      <c r="E211">
+        <v>0.79718875004049494</v>
+      </c>
+    </row>
+    <row r="212" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D212" s="2">
+        <v>44369</v>
+      </c>
+      <c r="E212">
+        <v>0.78225763568342443</v>
+      </c>
+    </row>
+    <row r="213" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D213" s="2">
+        <v>44370</v>
+      </c>
+      <c r="E213">
+        <v>0.76631448144405567</v>
+      </c>
+    </row>
+    <row r="214" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D214" s="2">
+        <v>44371</v>
+      </c>
+      <c r="E214">
+        <v>0.75017883409539921</v>
+      </c>
+    </row>
+    <row r="215" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D215" s="2">
+        <v>44372</v>
+      </c>
+      <c r="E215">
+        <v>0.73526220636704531</v>
+      </c>
+    </row>
+    <row r="216" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D216" s="2">
+        <v>44373</v>
+      </c>
+      <c r="E216">
+        <v>0.72313355827655024</v>
+      </c>
+    </row>
+    <row r="217" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D217" s="2">
+        <v>44374</v>
+      </c>
+      <c r="E217">
+        <v>0.71493949893897601</v>
+      </c>
+    </row>
+    <row r="218" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D218" s="2">
+        <v>44375</v>
+      </c>
+      <c r="E218">
+        <v>0.71120854265925337</v>
+      </c>
+    </row>
+    <row r="219" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D219" s="2">
+        <v>44376</v>
+      </c>
+      <c r="E219">
+        <v>0.71215536828868131</v>
+      </c>
+    </row>
+    <row r="220" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D220" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E220">
+        <v>0.71795159742184855</v>
+      </c>
+    </row>
+    <row r="221" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D221" s="2">
+        <v>44378</v>
+      </c>
+      <c r="E221">
+        <v>0.72891592358185409</v>
+      </c>
+    </row>
+    <row r="222" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D222" s="2">
+        <v>44379</v>
+      </c>
+      <c r="E222">
+        <v>0.74559982577431239</v>
+      </c>
+    </row>
+    <row r="223" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D223" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E223">
+        <v>0.76872249792837466</v>
+      </c>
+    </row>
+    <row r="224" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D224" s="2">
+        <v>44381</v>
+      </c>
+      <c r="E224">
+        <v>0.79885075519273163</v>
+      </c>
+    </row>
+    <row r="225" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D225" s="2">
+        <v>44382</v>
+      </c>
+      <c r="E225">
+        <v>0.83569045919210549</v>
+      </c>
+    </row>
+    <row r="226" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D226" s="2">
+        <v>44383</v>
+      </c>
+      <c r="E226">
+        <v>0.87700436307796048</v>
+      </c>
+    </row>
+    <row r="227" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D227" s="2">
+        <v>44384</v>
+      </c>
+      <c r="E227">
+        <v>0.91843690111722442</v>
+      </c>
+    </row>
+    <row r="228" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D228" s="2">
+        <v>44385</v>
+      </c>
+      <c r="E228">
+        <v>0.95486976525782385</v>
+      </c>
+    </row>
+    <row r="229" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D229" s="2">
+        <v>44386</v>
+      </c>
+      <c r="E229">
+        <v>0.98268297167680907</v>
+      </c>
+    </row>
+    <row r="230" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D230" s="2">
+        <v>44387</v>
+      </c>
+      <c r="E230">
+        <v>0.99961618641296168</v>
+      </c>
+    </row>
+    <row r="231" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D231" s="2">
+        <v>44388</v>
+      </c>
+      <c r="E231">
+        <v>1.0051195440484031</v>
+      </c>
+    </row>
+    <row r="232" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D232" s="2">
+        <v>44389</v>
+      </c>
+      <c r="E232">
+        <v>1.000744281551244</v>
+      </c>
+    </row>
+    <row r="233" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D233" s="2">
+        <v>44390</v>
+      </c>
+      <c r="E233">
+        <v>0.98988159936156361</v>
+      </c>
+    </row>
+    <row r="234" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D234" s="2">
+        <v>44391</v>
+      </c>
+      <c r="E234">
+        <v>0.97686640715652673</v>
+      </c>
+    </row>
+    <row r="235" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D235" s="2">
+        <v>44392</v>
+      </c>
+      <c r="E235">
+        <v>0.96538496084617098</v>
+      </c>
+    </row>
+    <row r="236" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D236" s="2">
+        <v>44393</v>
+      </c>
+      <c r="E236">
+        <v>0.95687741002879556</v>
+      </c>
+    </row>
+    <row r="237" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D237" s="2">
+        <v>44394</v>
+      </c>
+      <c r="E237">
+        <v>0.95187835382212382</v>
+      </c>
+    </row>
+    <row r="238" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D238" s="2">
+        <v>44395</v>
+      </c>
+      <c r="E238">
+        <v>0.95048270602565343</v>
+      </c>
+    </row>
+    <row r="239" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D239" s="2">
+        <v>44396</v>
+      </c>
+      <c r="E239">
+        <v>0.95235362875418539</v>
+      </c>
+    </row>
+    <row r="240" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D240" s="2">
+        <v>44397</v>
+      </c>
+      <c r="E240">
+        <v>0.95590918275890568</v>
+      </c>
+    </row>
+    <row r="241" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D241" s="2">
+        <v>44398</v>
+      </c>
+      <c r="E241">
+        <v>0.95631504225345232</v>
+      </c>
+    </row>
+    <row r="242" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D242" s="2">
+        <v>44399</v>
+      </c>
+      <c r="E242">
+        <v>0.94902280663749206</v>
+      </c>
+    </row>
+    <row r="243" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D243" s="2">
+        <v>44400</v>
+      </c>
+      <c r="E243">
+        <v>0.93284361553540307</v>
+      </c>
+    </row>
+    <row r="244" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D244" s="2">
+        <v>44401</v>
+      </c>
+      <c r="E244">
+        <v>0.91066906595303343</v>
+      </c>
+    </row>
+    <row r="245" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D245" s="2">
+        <v>44402</v>
+      </c>
+      <c r="E245">
+        <v>0.88847817398615481</v>
+      </c>
+    </row>
+    <row r="246" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D246" s="2">
+        <v>44403</v>
+      </c>
+      <c r="E246">
+        <v>0.87353523407097899</v>
+      </c>
+    </row>
+    <row r="247" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D247" s="2">
+        <v>44404</v>
+      </c>
+      <c r="E247">
+        <v>0.87393511961209747</v>
+      </c>
+    </row>
+    <row r="248" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D248" s="2">
+        <v>44405</v>
+      </c>
+      <c r="E248">
+        <v>0.90035258753676461</v>
+      </c>
+    </row>
+    <row r="249" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D249" s="2">
+        <v>44406</v>
+      </c>
+      <c r="E249">
+        <v>0.96150609310922164</v>
+      </c>
+    </row>
+    <row r="250" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D250" s="2">
+        <v>44407</v>
+      </c>
+      <c r="E250">
+        <v>1.0595607649017149</v>
+      </c>
+    </row>
+    <row r="251" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D251" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E251">
+        <v>1.1872727214763981</v>
+      </c>
+    </row>
+    <row r="252" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D252" s="2">
+        <v>44409</v>
+      </c>
+      <c r="E252">
+        <v>1.3276023188735979</v>
+      </c>
+    </row>
+    <row r="253" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D253" s="2">
+        <v>44410</v>
+      </c>
+      <c r="E253">
+        <v>1.4605262623446511</v>
+      </c>
+    </row>
+    <row r="254" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D254" s="2">
+        <v>44411</v>
+      </c>
+      <c r="E254">
+        <v>1.57136857654954</v>
+      </c>
+    </row>
+    <row r="255" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D255" s="2">
+        <v>44412</v>
+      </c>
+      <c r="E255">
+        <v>1.6548764025203011</v>
+      </c>
+    </row>
+    <row r="256" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D256" s="2">
+        <v>44413</v>
+      </c>
+      <c r="E256">
+        <v>1.7131206718172931</v>
+      </c>
+    </row>
+    <row r="257" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D257" s="2">
+        <v>44414</v>
+      </c>
+      <c r="E257">
+        <v>1.750131324103201</v>
+      </c>
+    </row>
+    <row r="258" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D258" s="2">
+        <v>44415</v>
+      </c>
+      <c r="E258">
+        <v>1.7684101796831411</v>
+      </c>
+    </row>
+    <row r="259" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D259" s="2">
+        <v>44416</v>
+      </c>
+      <c r="E259">
+        <v>1.769033090838547</v>
+      </c>
+    </row>
+    <row r="260" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D260" s="2">
+        <v>44417</v>
+      </c>
+      <c r="E260">
+        <v>1.7524533559517701</v>
+      </c>
+    </row>
+    <row r="261" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D261" s="2">
+        <v>44418</v>
+      </c>
+      <c r="E261">
+        <v>1.7209284787691661</v>
+      </c>
+    </row>
+    <row r="262" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D262" s="2">
+        <v>44419</v>
+      </c>
+      <c r="E262">
+        <v>1.6774738900558319</v>
+      </c>
+    </row>
+    <row r="263" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D263" s="2">
+        <v>44420</v>
+      </c>
+      <c r="E263">
+        <v>1.6246528554181769</v>
+      </c>
+    </row>
+    <row r="264" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D264" s="2">
+        <v>44421</v>
+      </c>
+      <c r="E264">
+        <v>1.5665148371807061</v>
+      </c>
+    </row>
+    <row r="265" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D265" s="2">
+        <v>44422</v>
+      </c>
+      <c r="E265">
+        <v>1.5083762984348781</v>
+      </c>
+    </row>
+    <row r="266" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D266" s="2">
+        <v>44423</v>
+      </c>
+      <c r="E266">
+        <v>1.455500204422818</v>
+      </c>
+    </row>
+    <row r="267" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D267" s="2">
+        <v>44424</v>
+      </c>
+      <c r="E267">
+        <v>1.41174622125564</v>
+      </c>
+    </row>
+    <row r="268" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D268" s="2">
+        <v>44425</v>
+      </c>
+      <c r="E268">
+        <v>1.3784477953704239</v>
+      </c>
+    </row>
+    <row r="269" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D269" s="2">
+        <v>44426</v>
+      </c>
+      <c r="E269">
+        <v>1.355279551809941</v>
+      </c>
+    </row>
+    <row r="270" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D270" s="2">
+        <v>44427</v>
+      </c>
+      <c r="E270">
+        <v>1.3413798390665119</v>
+      </c>
+    </row>
+    <row r="271" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D271" s="2">
+        <v>44428</v>
+      </c>
+      <c r="E271">
+        <v>1.3348968858421191</v>
+      </c>
+    </row>
+    <row r="272" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D272" s="2">
+        <v>44429</v>
+      </c>
+      <c r="E272">
+        <v>1.3332346948199989</v>
+      </c>
+    </row>
+    <row r="273" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D273" s="2">
+        <v>44430</v>
+      </c>
+      <c r="E273">
+        <v>1.3331269838650639</v>
+      </c>
+    </row>
+    <row r="274" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D274" s="2">
+        <v>44431</v>
+      </c>
+      <c r="E274">
+        <v>1.3318747259105179</v>
+      </c>
+    </row>
+    <row r="275" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D275" s="2">
+        <v>44432</v>
+      </c>
+      <c r="E275">
+        <v>1.3283768561579139</v>
+      </c>
+    </row>
+    <row r="276" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D276" s="2">
+        <v>44433</v>
+      </c>
+      <c r="E276">
+        <v>1.323097232052439</v>
+      </c>
+    </row>
+    <row r="277" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D277" s="2">
+        <v>44434</v>
+      </c>
+      <c r="E277">
+        <v>1.3174040699829419</v>
+      </c>
+    </row>
+    <row r="278" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D278" s="2">
+        <v>44435</v>
+      </c>
+      <c r="E278">
+        <v>1.3127110158483419</v>
+      </c>
+    </row>
+    <row r="279" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D279" s="2">
+        <v>44436</v>
+      </c>
+      <c r="E279">
+        <v>1.309777497974191</v>
+      </c>
+    </row>
+    <row r="280" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D280" s="2">
+        <v>44437</v>
+      </c>
+      <c r="E280">
+        <v>1.308822471584508</v>
+      </c>
+    </row>
+    <row r="281" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D281" s="2">
+        <v>44438</v>
+      </c>
+      <c r="E281">
+        <v>1.309320584473028</v>
+      </c>
+    </row>
+    <row r="282" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D282" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E282">
+        <v>1.3101445206360809</v>
+      </c>
+    </row>
+    <row r="283" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D283" s="2">
+        <v>44440</v>
+      </c>
+      <c r="E283">
+        <v>1.3104706063914711</v>
+      </c>
+    </row>
+    <row r="284" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D284" s="2">
+        <v>44441</v>
+      </c>
+      <c r="E284">
+        <v>1.310332191659028</v>
+      </c>
+    </row>
+    <row r="285" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D285" s="2">
+        <v>44442</v>
+      </c>
+      <c r="E285">
+        <v>1.3099446380470869</v>
+      </c>
+    </row>
+    <row r="286" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D286" s="2">
+        <v>44443</v>
+      </c>
+      <c r="E286">
+        <v>1.309342735577895</v>
+      </c>
+    </row>
+    <row r="287" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D287" s="2">
+        <v>44444</v>
+      </c>
+      <c r="E287">
+        <v>1.308369920048601</v>
+      </c>
+    </row>
+    <row r="288" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D288" s="2">
+        <v>44445</v>
+      </c>
+      <c r="E288">
+        <v>1.30674784254931</v>
+      </c>
+    </row>
+    <row r="289" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D289" s="2">
+        <v>44446</v>
+      </c>
+      <c r="E289">
+        <v>1.304033530493014</v>
+      </c>
+    </row>
+    <row r="290" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D290" s="2">
+        <v>44447</v>
+      </c>
+      <c r="E290">
+        <v>1.299365877770928</v>
+      </c>
+    </row>
+    <row r="291" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D291" s="2">
+        <v>44448</v>
+      </c>
+      <c r="E291">
+        <v>1.2915142826850341</v>
+      </c>
+    </row>
+    <row r="292" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D292" s="2">
+        <v>44449</v>
+      </c>
+      <c r="E292">
+        <v>1.279682128734412</v>
+      </c>
+    </row>
+    <row r="293" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D293" s="2">
+        <v>44450</v>
+      </c>
+      <c r="E293">
+        <v>1.2639884668092081</v>
+      </c>
+    </row>
+    <row r="294" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D294" s="2">
+        <v>44451</v>
+      </c>
+      <c r="E294">
+        <v>1.245374291638216</v>
+      </c>
+    </row>
+    <row r="295" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D295" s="2">
+        <v>44452</v>
+      </c>
+      <c r="E295">
+        <v>1.2248290408008069</v>
+      </c>
+    </row>
+    <row r="296" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D296" s="2">
+        <v>44453</v>
+      </c>
+      <c r="E296">
+        <v>1.20325186485181</v>
+      </c>
+    </row>
+    <row r="297" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D297" s="2">
+        <v>44454</v>
+      </c>
+      <c r="E297">
+        <v>1.181497639809562</v>
+      </c>
+    </row>
+    <row r="298" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D298" s="2">
+        <v>44455</v>
+      </c>
+      <c r="E298">
+        <v>1.1603753606929119</v>
+      </c>
+    </row>
+    <row r="299" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D299" s="2">
+        <v>44456</v>
+      </c>
+      <c r="E299">
+        <v>1.1405946575086781</v>
+      </c>
+    </row>
+    <row r="300" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D300" s="2">
+        <v>44457</v>
+      </c>
+      <c r="E300">
+        <v>1.1226759220130751</v>
+      </c>
+    </row>
+    <row r="301" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D301" s="2">
+        <v>44458</v>
+      </c>
+      <c r="E301">
+        <v>1.106956042629041</v>
+      </c>
+    </row>
+    <row r="302" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D302" s="2">
+        <v>44459</v>
+      </c>
+      <c r="E302">
+        <v>1.093955616570206</v>
+      </c>
+    </row>
+    <row r="303" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D303" s="2">
+        <v>44460</v>
+      </c>
+      <c r="E303">
+        <v>1.084250575689754</v>
+      </c>
+    </row>
+    <row r="304" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D304" s="2">
+        <v>44461</v>
+      </c>
+      <c r="E304">
+        <v>1.078147815647273</v>
+      </c>
+    </row>
+    <row r="305" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D305" s="2">
+        <v>44462</v>
+      </c>
+      <c r="E305">
+        <v>1.0757955043405749</v>
+      </c>
+    </row>
+    <row r="306" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D306" s="2">
+        <v>44463</v>
+      </c>
+      <c r="E306">
+        <v>1.0780956335863201</v>
+      </c>
+    </row>
+    <row r="307" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D307" s="2">
+        <v>44464</v>
+      </c>
+      <c r="E307">
+        <v>1.085584918844259</v>
+      </c>
+    </row>
+    <row r="308" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D308" s="2">
+        <v>44465</v>
+      </c>
+      <c r="E308">
+        <v>1.0975506931515131</v>
+      </c>
+    </row>
+    <row r="309" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D309" s="2">
+        <v>44466</v>
+      </c>
+      <c r="E309">
+        <v>1.111977540077564</v>
+      </c>
+    </row>
+    <row r="310" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D310" s="2">
+        <v>44467</v>
+      </c>
+      <c r="E310">
+        <v>1.1260782224990791</v>
+      </c>
+    </row>
+    <row r="311" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D311" s="2">
+        <v>44468</v>
+      </c>
+      <c r="E311">
+        <v>1.1371402782028219</v>
+      </c>
+    </row>
+    <row r="312" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D312" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E312">
+        <v>1.1429671266744279</v>
+      </c>
+    </row>
+    <row r="313" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D313" s="2">
+        <v>44470</v>
+      </c>
+      <c r="E313">
+        <v>1.141405835707757</v>
+      </c>
+    </row>
+    <row r="314" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D314" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E314">
+        <v>1.1314136204415111</v>
+      </c>
+    </row>
+    <row r="315" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D315" s="2">
+        <v>44472</v>
+      </c>
+      <c r="E315">
+        <v>1.1136239966941011</v>
+      </c>
+    </row>
+    <row r="316" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D316" s="2">
+        <v>44473</v>
+      </c>
+      <c r="E316">
+        <v>1.0895365746940271</v>
+      </c>
+    </row>
+    <row r="317" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D317" s="2">
+        <v>44474</v>
+      </c>
+      <c r="E317">
+        <v>1.0598312707530519</v>
+      </c>
+    </row>
+    <row r="318" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D318" s="2">
+        <v>44475</v>
+      </c>
+      <c r="E318">
+        <v>1.024878707901679</v>
+      </c>
+    </row>
+    <row r="319" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D319" s="2">
+        <v>44476</v>
+      </c>
+      <c r="E319">
+        <v>0.98531337182794931</v>
+      </c>
+    </row>
+    <row r="320" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D320" s="2">
+        <v>44477</v>
+      </c>
+      <c r="E320">
+        <v>0.94215577948322926</v>
+      </c>
+    </row>
+    <row r="321" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D321" s="2">
+        <v>44478</v>
+      </c>
+      <c r="E321">
+        <v>0.89669571177282448</v>
+      </c>
+    </row>
+    <row r="322" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D322" s="2">
+        <v>44479</v>
+      </c>
+      <c r="E322">
+        <v>0.85034968152337198</v>
+      </c>
+    </row>
+    <row r="323" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D323" s="2">
+        <v>44480</v>
+      </c>
+      <c r="E323">
+        <v>0.80505427460805834</v>
+      </c>
+    </row>
+    <row r="324" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D324" s="2">
+        <v>44481</v>
+      </c>
+      <c r="E324">
+        <v>0.76436220292010548</v>
+      </c>
+    </row>
+    <row r="325" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D325" s="2">
+        <v>44482</v>
+      </c>
+      <c r="E325">
+        <v>0.7324605697610489</v>
+      </c>
+    </row>
+    <row r="326" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D326" s="2">
+        <v>44483</v>
+      </c>
+      <c r="E326">
+        <v>0.71267264898229332</v>
+      </c>
+    </row>
+    <row r="327" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D327" s="2">
+        <v>44484</v>
+      </c>
+      <c r="E327">
+        <v>0.70741126893518791</v>
+      </c>
+    </row>
+    <row r="328" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D328" s="2">
+        <v>44485</v>
+      </c>
+      <c r="E328">
+        <v>0.71947470571003724</v>
+      </c>
+    </row>
+    <row r="329" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D329" s="2">
+        <v>44486</v>
+      </c>
+      <c r="E329">
+        <v>0.7513336528868757</v>
+      </c>
+    </row>
+    <row r="330" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D330" s="2">
+        <v>44487</v>
+      </c>
+      <c r="E330">
+        <v>0.80390180011507806</v>
+      </c>
+    </row>
+    <row r="331" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D331" s="2">
+        <v>44488</v>
+      </c>
+      <c r="E331">
+        <v>0.87521376938312778</v>
+      </c>
+    </row>
+    <row r="332" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D332" s="2">
+        <v>44489</v>
+      </c>
+      <c r="E332">
+        <v>0.95972916142538878</v>
+      </c>
+    </row>
+    <row r="333" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D333" s="2">
+        <v>44490</v>
+      </c>
+      <c r="E333">
+        <v>1.049349245126717</v>
+      </c>
+    </row>
+    <row r="334" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D334" s="2">
+        <v>44491</v>
+      </c>
+      <c r="E334">
+        <v>1.1341320214541111</v>
+      </c>
+    </row>
+    <row r="335" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D335" s="2">
+        <v>44492</v>
+      </c>
+      <c r="E335">
+        <v>1.2026451063753461</v>
+      </c>
+    </row>
+    <row r="336" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D336" s="2">
+        <v>44493</v>
+      </c>
+      <c r="E336">
+        <v>1.24629814365525</v>
+      </c>
+    </row>
+    <row r="337" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D337" s="2">
+        <v>44494</v>
+      </c>
+      <c r="E337">
+        <v>1.2633399636909399</v>
+      </c>
+    </row>
+    <row r="338" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D338" s="2">
+        <v>44495</v>
+      </c>
+      <c r="E338">
+        <v>1.2577316828548251</v>
+      </c>
+    </row>
+    <row r="339" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D339" s="2">
+        <v>44496</v>
+      </c>
+      <c r="E339">
+        <v>1.2356114023453411</v>
+      </c>
+    </row>
+    <row r="340" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D340" s="2">
+        <v>44497</v>
+      </c>
+      <c r="E340">
+        <v>1.2032989362593109</v>
+      </c>
+    </row>
+    <row r="341" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D341" s="2">
+        <v>44498</v>
+      </c>
+      <c r="E341">
+        <v>1.1663492394140491</v>
+      </c>
+    </row>
+    <row r="342" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D342" s="2">
+        <v>44499</v>
+      </c>
+      <c r="E342">
+        <v>1.1291742463300209</v>
+      </c>
+    </row>
+    <row r="343" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D343" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E343">
+        <v>1.0946805022446411</v>
+      </c>
+    </row>
+    <row r="344" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D344" s="2">
+        <v>44501</v>
+      </c>
+      <c r="E344">
+        <v>1.0636634354224781</v>
+      </c>
+    </row>
+    <row r="345" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D345" s="2">
+        <v>44502</v>
+      </c>
+      <c r="E345">
+        <v>1.0358996471873581</v>
+      </c>
+    </row>
+    <row r="346" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D346" s="2">
+        <v>44503</v>
+      </c>
+      <c r="E346">
+        <v>1.0115076243650729</v>
+      </c>
+    </row>
+    <row r="347" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D347" s="2">
+        <v>44504</v>
+      </c>
+      <c r="E347">
+        <v>0.99088459405277929</v>
+      </c>
+    </row>
+    <row r="348" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D348" s="2">
+        <v>44505</v>
+      </c>
+      <c r="E348">
+        <v>0.97421991792053286</v>
+      </c>
+    </row>
+    <row r="349" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D349" s="2">
+        <v>44506</v>
+      </c>
+      <c r="E349">
+        <v>0.96173563386186767</v>
+      </c>
+    </row>
+    <row r="350" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D350" s="2">
+        <v>44507</v>
+      </c>
+      <c r="E350">
+        <v>0.95356568099411176</v>
+      </c>
+    </row>
+    <row r="351" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D351" s="2">
+        <v>44508</v>
+      </c>
+      <c r="E351">
+        <v>0.9494579227696498</v>
+      </c>
+    </row>
+    <row r="352" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D352" s="2">
+        <v>44509</v>
+      </c>
+      <c r="E352">
+        <v>0.94861352132201926</v>
+      </c>
+    </row>
+    <row r="353" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D353" s="2">
+        <v>44510</v>
+      </c>
+      <c r="E353">
+        <v>0.94976107089696338</v>
+      </c>
+    </row>
+    <row r="354" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D354" s="2">
+        <v>44511</v>
+      </c>
+      <c r="E354">
+        <v>0.95157664783296481</v>
+      </c>
+    </row>
+    <row r="355" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D355" s="2">
+        <v>44512</v>
+      </c>
+      <c r="E355">
+        <v>0.95326660001411412</v>
+      </c>
+    </row>
+    <row r="356" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D356" s="2">
+        <v>44513</v>
+      </c>
+      <c r="E356">
+        <v>0.95424627068008916</v>
+      </c>
+    </row>
+    <row r="357" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D357" s="2">
+        <v>44514</v>
+      </c>
+      <c r="E357">
+        <v>0.95407881032624353</v>
+      </c>
+    </row>
+    <row r="358" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D358" s="2">
+        <v>44515</v>
+      </c>
+      <c r="E358">
+        <v>0.95257073579525708</v>
+      </c>
+    </row>
+    <row r="359" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D359" s="2">
+        <v>44516</v>
+      </c>
+      <c r="E359">
+        <v>0.94980197158103385</v>
+      </c>
+    </row>
+    <row r="360" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D360" s="2">
+        <v>44517</v>
+      </c>
+      <c r="E360">
+        <v>0.94604210396224475</v>
+      </c>
+    </row>
+    <row r="361" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D361" s="2">
+        <v>44518</v>
+      </c>
+      <c r="E361">
+        <v>0.94160579797601485</v>
+      </c>
+    </row>
+    <row r="362" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D362" s="2">
+        <v>44519</v>
+      </c>
+      <c r="E362">
+        <v>0.93675000803834951</v>
+      </c>
+    </row>
+    <row r="363" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D363" s="2">
+        <v>44520</v>
+      </c>
+      <c r="E363">
+        <v>0.93162967495417193</v>
+      </c>
+    </row>
+    <row r="364" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D364" s="2">
+        <v>44521</v>
+      </c>
+      <c r="E364">
+        <v>0.9262932782948663</v>
+      </c>
+    </row>
+    <row r="365" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D365" s="2">
+        <v>44522</v>
+      </c>
+      <c r="E365">
+        <v>0.92070389597666391</v>
+      </c>
+    </row>
+    <row r="366" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D366" s="2">
+        <v>44523</v>
+      </c>
+      <c r="E366">
+        <v>0.91477676839658029</v>
+      </c>
+    </row>
+    <row r="367" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D367" s="2">
+        <v>44524</v>
+      </c>
+      <c r="E367">
+        <v>0.90846844879670241</v>
+      </c>
+    </row>
+    <row r="368" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D368" s="2">
+        <v>44525</v>
+      </c>
+      <c r="E368">
+        <v>0.90186652268413969</v>
+      </c>
+    </row>
+    <row r="369" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D369" s="2">
+        <v>44526</v>
+      </c>
+      <c r="E369">
+        <v>0.8951627911052078</v>
+      </c>
+    </row>
+    <row r="370" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D370" s="2">
+        <v>44527</v>
+      </c>
+      <c r="E370">
+        <v>0.88839293584549084</v>
+      </c>
+    </row>
+    <row r="371" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D371" s="2">
+        <v>44528</v>
+      </c>
+      <c r="E371">
+        <v>0.88112541537568467</v>
+      </c>
+    </row>
+    <row r="372" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D372" s="2">
+        <v>44529</v>
+      </c>
+      <c r="E372">
+        <v>0.87284211387129407</v>
+      </c>
+    </row>
+    <row r="373" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D373" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E373">
+        <v>0.86326334892615486</v>
+      </c>
+    </row>
+    <row r="374" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D374" s="2">
+        <v>44531</v>
+      </c>
+      <c r="E374">
+        <v>0.8524465286805214</v>
+      </c>
+    </row>
+    <row r="375" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D375" s="2">
+        <v>44532</v>
+      </c>
+      <c r="E375">
+        <v>0.8407432158349053</v>
+      </c>
+    </row>
+    <row r="376" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D376" s="2">
+        <v>44533</v>
+      </c>
+      <c r="E376">
+        <v>0.82872269650817298</v>
+      </c>
+    </row>
+    <row r="377" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D377" s="2">
+        <v>44534</v>
+      </c>
+      <c r="E377">
+        <v>0.81730576360020635</v>
+      </c>
+    </row>
+    <row r="378" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D378" s="2">
+        <v>44535</v>
+      </c>
+      <c r="E378">
+        <v>0.80799125592994325</v>
+      </c>
+    </row>
+    <row r="379" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D379" s="2">
+        <v>44536</v>
+      </c>
+      <c r="E379">
+        <v>0.80226388054655617</v>
+      </c>
+    </row>
+    <row r="380" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D380" s="2">
+        <v>44537</v>
+      </c>
+      <c r="E380">
+        <v>0.80106052256535765</v>
+      </c>
+    </row>
+    <row r="381" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D381" s="2">
+        <v>44538</v>
+      </c>
+      <c r="E381">
+        <v>0.80466196508794252</v>
+      </c>
+    </row>
+    <row r="382" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D382" s="2">
+        <v>44539</v>
+      </c>
+      <c r="E382">
+        <v>0.81313620714680679</v>
+      </c>
+    </row>
+    <row r="383" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D383" s="2">
+        <v>44540</v>
+      </c>
+      <c r="E383">
+        <v>0.82645452123422758</v>
+      </c>
+    </row>
+    <row r="384" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D384" s="2">
+        <v>44541</v>
+      </c>
+      <c r="E384">
+        <v>0.84445950676807036</v>
+      </c>
+    </row>
+    <row r="385" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D385" s="2">
+        <v>44542</v>
+      </c>
+      <c r="E385">
+        <v>0.86679517693806507</v>
+      </c>
+    </row>
+    <row r="386" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D386" s="2">
+        <v>44543</v>
+      </c>
+      <c r="E386">
+        <v>0.89282403006543054</v>
+      </c>
+    </row>
+    <row r="387" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D387" s="2">
+        <v>44544</v>
+      </c>
+      <c r="E387">
+        <v>0.92153768555009485</v>
+      </c>
+    </row>
+    <row r="388" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D388" s="2">
+        <v>44545</v>
+      </c>
+      <c r="E388">
+        <v>0.951342773409662</v>
+      </c>
+    </row>
+    <row r="389" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D389" s="2">
+        <v>44546</v>
+      </c>
+      <c r="E389">
+        <v>0.97960738640657763</v>
+      </c>
+    </row>
+    <row r="390" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D390" s="2">
+        <v>44547</v>
+      </c>
+      <c r="E390">
+        <v>1.003226557633611</v>
+      </c>
+    </row>
+    <row r="391" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D391" s="2">
+        <v>44548</v>
+      </c>
+      <c r="E391">
+        <v>1.0198810375699581</v>
+      </c>
+    </row>
+    <row r="392" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D392" s="2">
+        <v>44549</v>
+      </c>
+      <c r="E392">
+        <v>1.028836873737184</v>
+      </c>
+    </row>
+    <row r="393" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D393" s="2">
+        <v>44550</v>
+      </c>
+      <c r="E393">
+        <v>1.0303595310559821</v>
+      </c>
+    </row>
+    <row r="394" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D394" s="2">
+        <v>44551</v>
+      </c>
+      <c r="E394">
+        <v>1.0254499667468671</v>
+      </c>
+    </row>
+    <row r="395" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D395" s="2">
+        <v>44552</v>
+      </c>
+      <c r="E395">
+        <v>1.0156610895334519</v>
+      </c>
+    </row>
+    <row r="396" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D396" s="2">
+        <v>44553</v>
+      </c>
+      <c r="E396">
+        <v>1.0028793220420491</v>
+      </c>
+    </row>
+    <row r="397" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D397" s="2">
+        <v>44554</v>
+      </c>
+      <c r="E397">
+        <v>0.98897758128620217</v>
+      </c>
+    </row>
+    <row r="398" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D398" s="2">
+        <v>44555</v>
+      </c>
+      <c r="E398">
+        <v>0.97521397622334038</v>
+      </c>
+    </row>
+    <row r="399" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D399" s="2">
+        <v>44556</v>
+      </c>
+      <c r="E399">
+        <v>0.96200947215763177</v>
+      </c>
+    </row>
+    <row r="400" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D400" s="2">
+        <v>44557</v>
+      </c>
+      <c r="E400">
+        <v>0.9497456518688534</v>
+      </c>
+    </row>
+    <row r="401" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D401" s="2">
+        <v>44558</v>
+      </c>
+      <c r="E401">
+        <v>0.93889852355130421</v>
+      </c>
+    </row>
+    <row r="402" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D402" s="2">
+        <v>44559</v>
+      </c>
+      <c r="E402">
+        <v>0.92979010017932229</v>
+      </c>
+    </row>
+    <row r="403" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D403" s="2">
+        <v>44560</v>
+      </c>
+      <c r="E403">
+        <v>0.92239446699144489</v>
+      </c>
+    </row>
+    <row r="404" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D404" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E404">
+        <v>0.91652218667580265</v>
+      </c>
+    </row>
+    <row r="405" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D405" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E405">
+        <v>0.91195686794445641</v>
+      </c>
+    </row>
+    <row r="406" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D406" s="2">
+        <v>44563</v>
+      </c>
+      <c r="E406">
+        <v>0.90848159998397182</v>
+      </c>
+    </row>
+    <row r="407" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D407" s="2">
+        <v>44564</v>
+      </c>
+      <c r="E407">
+        <v>0.90587138359105945</v>
+      </c>
+    </row>
+    <row r="408" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D408" s="2">
+        <v>44565</v>
+      </c>
+      <c r="E408">
+        <v>0.90395068163291736</v>
+      </c>
+    </row>
+    <row r="409" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D409" s="2">
+        <v>44566</v>
+      </c>
+      <c r="E409">
+        <v>0.90280670203652225</v>
+      </c>
+    </row>
+    <row r="410" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D410" s="2">
+        <v>44567</v>
+      </c>
+      <c r="E410">
+        <v>0.90287958862707329</v>
+      </c>
+    </row>
+    <row r="411" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D411" s="2">
+        <v>44568</v>
+      </c>
+      <c r="E411">
+        <v>0.90461062631603739</v>
+      </c>
+    </row>
+    <row r="412" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D412" s="2">
+        <v>44569</v>
+      </c>
+      <c r="E412">
+        <v>0.90817418277100748</v>
+      </c>
+    </row>
+    <row r="413" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D413" s="2">
+        <v>44570</v>
+      </c>
+      <c r="E413">
+        <v>0.91339890781214472</v>
+      </c>
+    </row>
+    <row r="414" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D414" s="2">
+        <v>44571</v>
+      </c>
+      <c r="E414">
+        <v>0.91975028942361181</v>
+      </c>
+    </row>
+    <row r="415" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D415" s="2">
+        <v>44572</v>
+      </c>
+      <c r="E415">
+        <v>0.92667429911904142</v>
+      </c>
+    </row>
+    <row r="416" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D416" s="2">
+        <v>44573</v>
+      </c>
+      <c r="E416">
+        <v>0.93389991574396702</v>
+      </c>
+    </row>
+    <row r="417" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D417" s="2">
+        <v>44574</v>
+      </c>
+      <c r="E417">
+        <v>0.94153813955108012</v>
+      </c>
+    </row>
+    <row r="418" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D418" s="2">
+        <v>44575</v>
+      </c>
+      <c r="E418">
+        <v>0.94999619789555478</v>
+      </c>
+    </row>
+    <row r="419" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D419" s="2">
+        <v>44576</v>
+      </c>
+      <c r="E419">
+        <v>0.95973354169915581</v>
+      </c>
+    </row>
+    <row r="420" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D420" s="2">
+        <v>44577</v>
+      </c>
+      <c r="E420">
+        <v>0.97098289199120669</v>
+      </c>
+    </row>
+    <row r="421" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D421" s="2">
+        <v>44578</v>
+      </c>
+      <c r="E421">
+        <v>0.98366615760966614</v>
+      </c>
+    </row>
+    <row r="422" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D422" s="2">
+        <v>44579</v>
+      </c>
+      <c r="E422">
+        <v>0.99718356013588316</v>
+      </c>
+    </row>
+    <row r="423" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D423" s="2">
+        <v>44580</v>
+      </c>
+      <c r="E423">
+        <v>1.0105724061822161</v>
+      </c>
+    </row>
+    <row r="424" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D424" s="2">
+        <v>44581</v>
+      </c>
+      <c r="E424">
+        <v>1.022989707494834</v>
+      </c>
+    </row>
+    <row r="425" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D425" s="2">
+        <v>44582</v>
+      </c>
+      <c r="E425">
+        <v>1.0336716377927451</v>
+      </c>
+    </row>
+    <row r="426" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D426" s="2">
+        <v>44583</v>
+      </c>
+      <c r="E426">
+        <v>1.0421819792831031</v>
+      </c>
+    </row>
+    <row r="427" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D427" s="2">
+        <v>44584</v>
+      </c>
+      <c r="E427">
+        <v>1.048669941878861</v>
+      </c>
+    </row>
+    <row r="428" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D428" s="2">
+        <v>44585</v>
+      </c>
+      <c r="E428">
+        <v>1.0538700320616869</v>
+      </c>
+    </row>
+    <row r="429" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D429" s="2">
+        <v>44586</v>
+      </c>
+      <c r="E429">
+        <v>1.0588442382105181</v>
+      </c>
+    </row>
+    <row r="430" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D430" s="2">
+        <v>44587</v>
+      </c>
+      <c r="E430">
+        <v>1.06446781089616</v>
+      </c>
+    </row>
+    <row r="431" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D431" s="2">
+        <v>44588</v>
+      </c>
+      <c r="E431">
+        <v>1.07090592619424</v>
+      </c>
+    </row>
+    <row r="432" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D432" s="2">
+        <v>44589</v>
+      </c>
+      <c r="E432">
+        <v>1.077860414459171</v>
+      </c>
+    </row>
+    <row r="433" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D433" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E433">
+        <v>1.0847070898250699</v>
+      </c>
+    </row>
+    <row r="434" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D434" s="2">
+        <v>44591</v>
+      </c>
+      <c r="E434">
+        <v>1.0907253720029539</v>
+      </c>
+    </row>
+    <row r="435" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D435" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E435">
+        <v>1.09510928300837</v>
+      </c>
+    </row>
+    <row r="436" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D436" s="2">
+        <v>44593</v>
+      </c>
+      <c r="E436">
+        <v>1.096266669841901</v>
+      </c>
+    </row>
+    <row r="437" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D437" s="2">
+        <v>44594</v>
+      </c>
+      <c r="E437">
+        <v>1.0930331642398941</v>
+      </c>
+    </row>
+    <row r="438" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D438" s="2">
+        <v>44595</v>
+      </c>
+      <c r="E438">
+        <v>1.085586222309376</v>
+      </c>
+    </row>
+    <row r="439" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D439" s="2">
+        <v>44596</v>
+      </c>
+      <c r="E439">
+        <v>1.075461073695918</v>
+      </c>
+    </row>
+    <row r="440" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D440" s="2">
+        <v>44597</v>
+      </c>
+      <c r="E440">
+        <v>1.0650034887325439</v>
+      </c>
+    </row>
+    <row r="441" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D441" s="2">
+        <v>44598</v>
+      </c>
+      <c r="E441">
+        <v>1.0565768113730509</v>
+      </c>
+    </row>
+    <row r="442" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D442" s="2">
+        <v>44599</v>
+      </c>
+      <c r="E442">
+        <v>1.0521722334752901</v>
+      </c>
+    </row>
+    <row r="443" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D443" s="2">
+        <v>44600</v>
+      </c>
+      <c r="E443">
+        <v>1.05391966330148</v>
+      </c>
+    </row>
+    <row r="444" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D444" s="2">
+        <v>44601</v>
+      </c>
+      <c r="E444">
+        <v>1.0630818196229479</v>
+      </c>
+    </row>
+    <row r="445" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D445" s="2">
+        <v>44602</v>
+      </c>
+      <c r="E445">
+        <v>1.0793820878246549</v>
+      </c>
+    </row>
+    <row r="446" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D446" s="2">
+        <v>44603</v>
+      </c>
+      <c r="E446">
+        <v>1.099785008812219</v>
+      </c>
+    </row>
+    <row r="447" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D447" s="2">
+        <v>44604</v>
+      </c>
+      <c r="E447">
+        <v>1.1166055174013789</v>
+      </c>
+    </row>
+    <row r="448" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D448" s="2">
+        <v>44605</v>
+      </c>
+      <c r="E448">
+        <v>1.1233316073611379</v>
+      </c>
+    </row>
+    <row r="449" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D449" s="2">
+        <v>44606</v>
+      </c>
+      <c r="E449">
+        <v>1.11880014878176</v>
+      </c>
+    </row>
+    <row r="450" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D450" s="2">
+        <v>44607</v>
+      </c>
+      <c r="E450">
+        <v>1.1073391752284649</v>
+      </c>
+    </row>
+    <row r="451" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D451" s="2">
+        <v>44608</v>
+      </c>
+      <c r="E451">
+        <v>1.096414007150126</v>
+      </c>
+    </row>
+    <row r="452" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D452" s="2">
+        <v>44609</v>
+      </c>
+      <c r="E452">
+        <v>1.093610781568668</v>
+      </c>
+    </row>
+    <row r="453" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D453" s="2">
+        <v>44610</v>
+      </c>
+      <c r="E453">
+        <v>1.105571626819789</v>
+      </c>
+    </row>
+    <row r="454" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D454" s="2">
+        <v>44611</v>
+      </c>
+      <c r="E454">
+        <v>1.1389968870468989</v>
+      </c>
+    </row>
+    <row r="455" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D455" s="2">
+        <v>44612</v>
+      </c>
+      <c r="E455">
+        <v>1.1960753633325469</v>
+      </c>
+    </row>
+    <row r="456" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D456" s="2">
+        <v>44613</v>
+      </c>
+      <c r="E456">
+        <v>1.272146840739141</v>
+      </c>
+    </row>
+    <row r="457" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D457" s="2">
+        <v>44614</v>
+      </c>
+      <c r="E457">
+        <v>1.356239363016011</v>
+      </c>
+    </row>
+    <row r="458" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D458" s="2">
+        <v>44615</v>
+      </c>
+      <c r="E458">
+        <v>1.434403780416929</v>
+      </c>
+    </row>
+    <row r="459" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D459" s="2">
+        <v>44616</v>
+      </c>
+      <c r="E459">
+        <v>1.496683730008713</v>
+      </c>
+    </row>
+    <row r="460" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D460" s="2">
+        <v>44617</v>
+      </c>
+      <c r="E460">
+        <v>1.540472363584072</v>
+      </c>
+    </row>
+    <row r="461" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D461" s="2">
+        <v>44618</v>
+      </c>
+      <c r="E461">
+        <v>1.5691011726711841</v>
+      </c>
+    </row>
+    <row r="462" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D462" s="2">
+        <v>44619</v>
+      </c>
+      <c r="E462">
+        <v>1.587944888924923</v>
+      </c>
+    </row>
+    <row r="463" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D463" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E463">
+        <v>1.600714684268399</v>
+      </c>
+    </row>
+    <row r="464" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D464" s="2">
+        <v>44621</v>
+      </c>
+      <c r="E464">
+        <v>1.6084077024284911</v>
+      </c>
+    </row>
+    <row r="465" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D465" s="2">
+        <v>44622</v>
+      </c>
+      <c r="E465">
+        <v>1.6101941906991131</v>
+      </c>
+    </row>
+    <row r="466" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D466" s="2">
+        <v>44623</v>
+      </c>
+      <c r="E466">
+        <v>1.604217349331766</v>
+      </c>
+    </row>
+    <row r="467" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D467" s="2">
+        <v>44624</v>
+      </c>
+      <c r="E467">
+        <v>1.5898737924237041</v>
+      </c>
+    </row>
+    <row r="468" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D468" s="2">
+        <v>44625</v>
+      </c>
+      <c r="E468">
+        <v>1.569045609994312</v>
+      </c>
+    </row>
+    <row r="469" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D469" s="2">
+        <v>44626</v>
+      </c>
+      <c r="E469">
+        <v>1.5443932823270159</v>
+      </c>
+    </row>
+    <row r="470" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D470" s="2">
+        <v>44627</v>
+      </c>
+      <c r="E470">
+        <v>1.5181754655810129</v>
+      </c>
+    </row>
+    <row r="471" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D471" s="2">
+        <v>44628</v>
+      </c>
+      <c r="E471">
+        <v>1.492029447624559</v>
+      </c>
+    </row>
+    <row r="472" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D472" s="2">
+        <v>44629</v>
+      </c>
+      <c r="E472">
+        <v>1.4670272079039739</v>
+      </c>
+    </row>
+    <row r="473" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D473" s="2">
+        <v>44630</v>
+      </c>
+      <c r="E473">
+        <v>1.4435650336905139</v>
+      </c>
+    </row>
+    <row r="474" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D474" s="2">
+        <v>44631</v>
+      </c>
+      <c r="E474">
+        <v>1.420976125457327</v>
+      </c>
+    </row>
+    <row r="475" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D475" s="2">
+        <v>44632</v>
+      </c>
+      <c r="E475">
+        <v>1.3975972746131371</v>
+      </c>
+    </row>
+    <row r="476" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D476" s="2">
+        <v>44633</v>
+      </c>
+      <c r="E476">
+        <v>1.3720313574366709</v>
+      </c>
+    </row>
+    <row r="477" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D477" s="2">
+        <v>44634</v>
+      </c>
+      <c r="E477">
+        <v>1.343988806500674</v>
+      </c>
+    </row>
+    <row r="478" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D478" s="2">
+        <v>44635</v>
+      </c>
+      <c r="E478">
+        <v>1.3143841615130141</v>
+      </c>
+    </row>
+    <row r="479" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D479" s="2">
+        <v>44636</v>
+      </c>
+      <c r="E479">
+        <v>1.284668161907339</v>
+      </c>
+    </row>
+    <row r="480" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D480" s="2">
+        <v>44637</v>
+      </c>
+      <c r="E480">
+        <v>1.2559929279220481</v>
+      </c>
+    </row>
+    <row r="481" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D481" s="2">
+        <v>44638</v>
+      </c>
+      <c r="E481">
+        <v>1.228937728779762</v>
+      </c>
+    </row>
+    <row r="482" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D482" s="2">
+        <v>44639</v>
+      </c>
+      <c r="E482">
+        <v>1.203611207539194</v>
+      </c>
+    </row>
+    <row r="483" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D483" s="2">
+        <v>44640</v>
+      </c>
+      <c r="E483">
+        <v>1.1798641755063879</v>
+      </c>
+    </row>
+    <row r="484" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D484" s="2">
+        <v>44641</v>
+      </c>
+      <c r="E484">
+        <v>1.1574694773642249</v>
+      </c>
+    </row>
+    <row r="485" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D485" s="2">
+        <v>44642</v>
+      </c>
+      <c r="E485">
+        <v>1.136208793257858</v>
+      </c>
+    </row>
+    <row r="486" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D486" s="2">
+        <v>44643</v>
+      </c>
+      <c r="E486">
+        <v>1.1160961191478209</v>
+      </c>
+    </row>
+    <row r="487" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D487" s="2">
+        <v>44644</v>
+      </c>
+      <c r="E487">
+        <v>1.097595400449209</v>
+      </c>
+    </row>
+    <row r="488" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D488" s="2">
+        <v>44645</v>
+      </c>
+      <c r="E488">
+        <v>1.0813587813355761</v>
+      </c>
+    </row>
+    <row r="489" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D489" s="2">
+        <v>44646</v>
+      </c>
+      <c r="E489">
+        <v>1.0678659833013371</v>
+      </c>
+    </row>
+    <row r="490" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D490" s="2">
+        <v>44647</v>
+      </c>
+      <c r="E490">
+        <v>1.0577831075134589</v>
+      </c>
+    </row>
+    <row r="491" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D491" s="2">
+        <v>44648</v>
+      </c>
+      <c r="E491">
+        <v>1.0513510147448311</v>
+      </c>
+    </row>
+    <row r="492" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D492" s="2">
+        <v>44649</v>
+      </c>
+      <c r="E492">
+        <v>1.0479106496564301</v>
+      </c>
+    </row>
+    <row r="493" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D493" s="2">
+        <v>44650</v>
+      </c>
+      <c r="E493">
+        <v>1.045936683420533</v>
+      </c>
+    </row>
+    <row r="494" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D494" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E494">
+        <v>1.0434520174676929</v>
+      </c>
+    </row>
+    <row r="495" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D495" s="2">
+        <v>44652</v>
+      </c>
+      <c r="E495">
+        <v>1.0387320441743491</v>
+      </c>
+    </row>
+    <row r="496" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D496" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E496">
+        <v>1.030866288865065</v>
+      </c>
+    </row>
+    <row r="497" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D497" s="2">
+        <v>44654</v>
+      </c>
+      <c r="E497">
+        <v>1.019385968365577</v>
+      </c>
+    </row>
+    <row r="498" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D498" s="2">
+        <v>44655</v>
+      </c>
+      <c r="E498">
+        <v>1.004527717065983</v>
+      </c>
+    </row>
+    <row r="499" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D499" s="2">
+        <v>44656</v>
+      </c>
+      <c r="E499">
+        <v>0.98718177688105746</v>
+      </c>
+    </row>
+    <row r="500" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D500" s="2">
+        <v>44657</v>
+      </c>
+      <c r="E500">
+        <v>0.96819641975849424</v>
+      </c>
+    </row>
+    <row r="501" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D501" s="2">
+        <v>44658</v>
+      </c>
+      <c r="E501">
+        <v>0.94777371615283645</v>
+      </c>
+    </row>
+    <row r="502" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D502" s="2">
+        <v>44659</v>
+      </c>
+      <c r="E502">
+        <v>0.925646386693736</v>
+      </c>
+    </row>
+    <row r="503" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D503" s="2">
+        <v>44660</v>
+      </c>
+      <c r="E503">
+        <v>0.90128395365606828</v>
+      </c>
+    </row>
+    <row r="504" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D504" s="2">
+        <v>44661</v>
+      </c>
+      <c r="E504">
+        <v>0.87402396890094691</v>
+      </c>
+    </row>
+    <row r="505" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D505" s="2">
+        <v>44662</v>
+      </c>
+      <c r="E505">
+        <v>0.843213146381385</v>
+      </c>
+    </row>
+    <row r="506" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D506" s="2">
+        <v>44663</v>
+      </c>
+      <c r="E506">
+        <v>0.8085146079636879</v>
+      </c>
+    </row>
+    <row r="507" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D507" s="2">
+        <v>44664</v>
+      </c>
+      <c r="E507">
+        <v>0.77053021154634349</v>
+      </c>
+    </row>
+    <row r="508" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D508" s="2">
+        <v>44665</v>
+      </c>
+      <c r="E508">
+        <v>0.73120199952514875</v>
+      </c>
+    </row>
+    <row r="509" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D509" s="2">
+        <v>44666</v>
+      </c>
+      <c r="E509">
+        <v>0.69322873680402286</v>
+      </c>
+    </row>
+    <row r="510" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D510" s="2">
+        <v>44667</v>
+      </c>
+      <c r="E510">
+        <v>0.65911658910708981</v>
+      </c>
+    </row>
+    <row r="511" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D511" s="2">
+        <v>44668</v>
+      </c>
+      <c r="E511">
+        <v>0.63004852998744165</v>
+      </c>
+    </row>
+    <row r="512" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D512" s="2">
+        <v>44669</v>
+      </c>
+      <c r="E512">
+        <v>0.60624399485049729</v>
+      </c>
+    </row>
+    <row r="513" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D513" s="2">
+        <v>44670</v>
+      </c>
+      <c r="E513">
+        <v>0.58748332838584072</v>
+      </c>
+    </row>
+    <row r="514" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D514" s="2">
+        <v>44671</v>
+      </c>
+      <c r="E514">
+        <v>0.57318802024128002</v>
+      </c>
+    </row>
+    <row r="515" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D515" s="2">
+        <v>44672</v>
+      </c>
+      <c r="E515">
+        <v>0.56230140948356244</v>
+      </c>
+    </row>
+    <row r="516" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D516" s="2">
+        <v>44673</v>
+      </c>
+      <c r="E516">
+        <v>0.55327326775765051</v>
+      </c>
+    </row>
+    <row r="517" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D517" s="2">
+        <v>44674</v>
+      </c>
+      <c r="E517">
+        <v>0.5447360416798448</v>
+      </c>
+    </row>
+    <row r="518" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D518" s="2">
+        <v>44675</v>
+      </c>
+      <c r="E518">
+        <v>0.53713675295034502</v>
+      </c>
+    </row>
+    <row r="519" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D519" s="2">
+        <v>44676</v>
+      </c>
+      <c r="E519">
+        <v>0.53181449137780068</v>
+      </c>
+    </row>
+    <row r="520" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D520" s="2">
+        <v>44677</v>
+      </c>
+      <c r="E520">
+        <v>0.52941361696139155</v>
+      </c>
+    </row>
+    <row r="521" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D521" s="2">
+        <v>44678</v>
+      </c>
+      <c r="E521">
+        <v>0.52944464877784092</v>
+      </c>
+    </row>
+    <row r="522" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D522" s="2">
+        <v>44679</v>
+      </c>
+      <c r="E522">
+        <v>0.53069056979912144</v>
+      </c>
+    </row>
+    <row r="523" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D523" s="2">
+        <v>44680</v>
+      </c>
+      <c r="E523">
+        <v>0.53079798021612368</v>
+      </c>
+    </row>
+    <row r="524" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D524" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E524">
+        <v>0.52714794598665737</v>
+      </c>
+    </row>
+    <row r="525" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D525" s="2">
+        <v>44682</v>
+      </c>
+      <c r="E525">
+        <v>0.51825151266717262</v>
+      </c>
+    </row>
+    <row r="526" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D526" s="2">
+        <v>44683</v>
+      </c>
+      <c r="E526">
+        <v>0.5050211847053272</v>
+      </c>
+    </row>
+    <row r="527" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D527" s="2">
+        <v>44684</v>
+      </c>
+      <c r="E527">
+        <v>0.49124095073625362</v>
+      </c>
+    </row>
+    <row r="528" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D528" s="2">
+        <v>44685</v>
+      </c>
+      <c r="E528">
+        <v>0.4820003527101781</v>
+      </c>
+    </row>
+    <row r="529" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D529" s="2">
+        <v>44686</v>
+      </c>
+      <c r="E529">
+        <v>0.4807591942996276</v>
+      </c>
+    </row>
+    <row r="530" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D530" s="2">
+        <v>44687</v>
+      </c>
+      <c r="E530">
+        <v>0.48930650019689231</v>
+      </c>
+    </row>
+    <row r="531" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D531" s="2">
+        <v>44688</v>
+      </c>
+      <c r="E531">
+        <v>0.50665878389874852</v>
+      </c>
+    </row>
+    <row r="532" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D532" s="2">
+        <v>44689</v>
+      </c>
+      <c r="E532">
+        <v>0.5298190756341522</v>
+      </c>
+    </row>
+    <row r="533" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D533" s="2">
+        <v>44690</v>
+      </c>
+      <c r="E533">
+        <v>0.55484508916283048</v>
+      </c>
+    </row>
+    <row r="534" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D534" s="2">
+        <v>44691</v>
+      </c>
+      <c r="E534">
+        <v>0.57650894846133938</v>
+      </c>
+    </row>
+    <row r="535" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D535" s="2">
+        <v>44692</v>
+      </c>
+      <c r="E535">
+        <v>0.59066392277326107</v>
+      </c>
+    </row>
+    <row r="536" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D536" s="2">
+        <v>44693</v>
+      </c>
+      <c r="E536">
+        <v>0.59723026060005613</v>
+      </c>
+    </row>
+    <row r="537" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D537" s="2">
+        <v>44694</v>
+      </c>
+      <c r="E537">
+        <v>0.60216261673234961</v>
+      </c>
+    </row>
+    <row r="538" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D538" s="2">
+        <v>44695</v>
+      </c>
+      <c r="E538">
+        <v>0.61631575467742605</v>
+      </c>
+    </row>
+    <row r="539" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D539" s="2">
+        <v>44696</v>
+      </c>
+      <c r="E539">
+        <v>0.64856683256124459</v>
+      </c>
+    </row>
+    <row r="540" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D540" s="2">
+        <v>44697</v>
+      </c>
+      <c r="E540">
+        <v>0.70031439366802117</v>
+      </c>
+    </row>
+    <row r="541" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D541" s="2">
+        <v>44698</v>
+      </c>
+      <c r="E541">
+        <v>0.76651676919910761</v>
+      </c>
+    </row>
+    <row r="542" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D542" s="2">
+        <v>44699</v>
+      </c>
+      <c r="E542">
+        <v>0.83646739885117305</v>
+      </c>
+    </row>
+    <row r="543" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D543" s="2">
+        <v>44700</v>
+      </c>
+      <c r="E543">
+        <v>0.89879309450637113</v>
+      </c>
+    </row>
+    <row r="544" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D544" s="2">
+        <v>44701</v>
+      </c>
+      <c r="E544">
+        <v>0.94375664907501322</v>
+      </c>
+    </row>
+    <row r="545" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D545" s="2">
+        <v>44702</v>
+      </c>
+      <c r="E545">
+        <v>0.96526039558329069</v>
+      </c>
+    </row>
+    <row r="546" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D546" s="2">
+        <v>44703</v>
+      </c>
+      <c r="E546">
+        <v>0.96316113512495238</v>
+      </c>
+    </row>
+    <row r="547" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D547" s="2">
+        <v>44704</v>
+      </c>
+      <c r="E547">
+        <v>0.94317624976530956</v>
+      </c>
+    </row>
+    <row r="548" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D548" s="2">
+        <v>44705</v>
+      </c>
+      <c r="E548">
+        <v>0.91457937793035926</v>
+      </c>
+    </row>
+    <row r="549" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D549" s="2">
+        <v>44706</v>
+      </c>
+      <c r="E549">
+        <v>0.88621800313860022</v>
+      </c>
+    </row>
+    <row r="550" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D550" s="2">
+        <v>44707</v>
+      </c>
+      <c r="E550">
+        <v>0.8616823099234997</v>
+      </c>
+    </row>
+    <row r="551" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D551" s="2">
+        <v>44708</v>
+      </c>
+      <c r="E551">
+        <v>0.84150385575575404</v>
+      </c>
+    </row>
+    <row r="552" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D552" s="2">
+        <v>44709</v>
+      </c>
+      <c r="E552">
+        <v>0.82563710370262333</v>
+      </c>
+    </row>
+    <row r="553" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D553" s="2">
+        <v>44710</v>
+      </c>
+      <c r="E553">
+        <v>0.81371347211507228</v>
+      </c>
+    </row>
+    <row r="554" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D554" s="2">
+        <v>44711</v>
+      </c>
+      <c r="E554">
+        <v>0.80505222247956698</v>
+      </c>
+    </row>
+    <row r="555" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D555" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E555">
+        <v>0.79842573554055962</v>
+      </c>
+    </row>
+    <row r="556" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D556" s="2">
+        <v>44713</v>
+      </c>
+      <c r="E556">
+        <v>0.79261736540810501</v>
+      </c>
+    </row>
+    <row r="557" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D557" s="2">
+        <v>44714</v>
+      </c>
+      <c r="E557">
+        <v>0.78700516170221024</v>
+      </c>
+    </row>
+    <row r="558" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D558" s="2">
+        <v>44715</v>
+      </c>
+      <c r="E558">
+        <v>0.78182727468255719</v>
+      </c>
+    </row>
+    <row r="559" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D559" s="2">
+        <v>44716</v>
+      </c>
+      <c r="E559">
+        <v>0.77814203225392253</v>
+      </c>
+    </row>
+    <row r="560" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D560" s="2">
+        <v>44717</v>
+      </c>
+      <c r="E560">
+        <v>0.77747910638098372</v>
+      </c>
+    </row>
+    <row r="561" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D561" s="2">
+        <v>44718</v>
+      </c>
+      <c r="E561">
+        <v>0.78144352641747783</v>
+      </c>
+    </row>
+    <row r="562" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D562" s="2">
+        <v>44719</v>
+      </c>
+      <c r="E562">
+        <v>0.7917290818784759</v>
+      </c>
+    </row>
+    <row r="563" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D563" s="2">
+        <v>44720</v>
+      </c>
+      <c r="E563">
+        <v>0.80924281750052385</v>
+      </c>
+    </row>
+    <row r="564" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D564" s="2">
+        <v>44721</v>
+      </c>
+      <c r="E564">
+        <v>0.83361883548193094</v>
+      </c>
+    </row>
+    <row r="565" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D565" s="2">
+        <v>44722</v>
+      </c>
+      <c r="E565">
+        <v>0.86226214691761205</v>
+      </c>
+    </row>
+    <row r="566" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D566" s="2">
+        <v>44723</v>
+      </c>
+      <c r="E566">
+        <v>0.88744403311260256</v>
+      </c>
+    </row>
+    <row r="567" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D567" s="2">
+        <v>44724</v>
+      </c>
+      <c r="E567">
+        <v>0.90088548889030484</v>
+      </c>
+    </row>
+    <row r="568" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D568" s="2">
+        <v>44725</v>
+      </c>
+      <c r="E568">
+        <v>0.89881521668429554</v>
+      </c>
+    </row>
+    <row r="569" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D569" s="2">
+        <v>44726</v>
+      </c>
+      <c r="E569">
+        <v>0.88399971287632795</v>
+      </c>
+    </row>
+    <row r="570" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D570" s="2">
+        <v>44727</v>
+      </c>
+      <c r="E570">
+        <v>0.86471658323228007</v>
+      </c>
+    </row>
+    <row r="571" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D571" s="2">
+        <v>44728</v>
+      </c>
+      <c r="E571">
+        <v>0.85177286621850967</v>
+      </c>
+    </row>
+    <row r="572" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D572" s="2">
+        <v>44729</v>
+      </c>
+      <c r="E572">
+        <v>0.85694072650594311</v>
+      </c>
+    </row>
+    <row r="573" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D573" s="2">
+        <v>44730</v>
+      </c>
+      <c r="E573">
+        <v>0.89535033734748581</v>
+      </c>
+    </row>
+    <row r="574" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D574" s="2">
+        <v>44731</v>
+      </c>
+      <c r="E574">
+        <v>0.97914972646691889</v>
+      </c>
+    </row>
+    <row r="575" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D575" s="2">
+        <v>44732</v>
+      </c>
+      <c r="E575">
+        <v>1.110607041924716</v>
+      </c>
+    </row>
+    <row r="576" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D576" s="2">
+        <v>44733</v>
+      </c>
+      <c r="E576">
+        <v>1.2787140805427459</v>
+      </c>
+    </row>
+    <row r="577" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D577" s="2">
+        <v>44734</v>
+      </c>
+      <c r="E577">
+        <v>1.4601556099658419</v>
+      </c>
+    </row>
+    <row r="578" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D578" s="2">
+        <v>44735</v>
+      </c>
+      <c r="E578">
+        <v>1.6269030880528501</v>
+      </c>
+    </row>
+    <row r="579" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D579" s="2">
+        <v>44736</v>
+      </c>
+      <c r="E579">
+        <v>1.7576941488969591</v>
+      </c>
+    </row>
+    <row r="580" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D580" s="2">
+        <v>44737</v>
+      </c>
+      <c r="E580">
+        <v>1.844807028629682</v>
+      </c>
+    </row>
+    <row r="581" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D581" s="2">
+        <v>44738</v>
+      </c>
+      <c r="E581">
+        <v>1.89201270212885</v>
+      </c>
+    </row>
+    <row r="582" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D582" s="2">
+        <v>44739</v>
+      </c>
+      <c r="E582">
+        <v>1.9074569313028571</v>
+      </c>
+    </row>
+    <row r="583" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D583" s="2">
+        <v>44740</v>
+      </c>
+      <c r="E583">
+        <v>1.8977551088193829</v>
+      </c>
+    </row>
+    <row r="584" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D584" s="2">
+        <v>44741</v>
+      </c>
+      <c r="E584">
+        <v>1.86693201106368</v>
+      </c>
+    </row>
+    <row r="585" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D585" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E585">
+        <v>1.818323245382361</v>
+      </c>
+    </row>
+    <row r="586" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D586" s="2">
+        <v>44743</v>
+      </c>
+      <c r="E586">
+        <v>1.756687663397452</v>
+      </c>
+    </row>
+    <row r="587" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D587" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E587">
+        <v>1.688758363391039</v>
+      </c>
+    </row>
+    <row r="588" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D588" s="2">
+        <v>44745</v>
+      </c>
+      <c r="E588">
+        <v>1.620486350306799</v>
+      </c>
+    </row>
+    <row r="589" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D589" s="2">
+        <v>44746</v>
+      </c>
+      <c r="E589">
+        <v>1.5557301762634761</v>
+      </c>
+    </row>
+    <row r="590" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D590" s="2">
+        <v>44747</v>
+      </c>
+      <c r="E590">
+        <v>1.4966085457828311</v>
+      </c>
+    </row>
+    <row r="591" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D591" s="2">
+        <v>44748</v>
+      </c>
+      <c r="E591">
+        <v>1.4441729063519431</v>
+      </c>
+    </row>
+    <row r="592" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D592" s="2">
+        <v>44749</v>
+      </c>
+      <c r="E592">
+        <v>1.3987731140742281</v>
+      </c>
+    </row>
+    <row r="593" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D593" s="2">
+        <v>44750</v>
+      </c>
+      <c r="E593">
+        <v>1.3599369478635011</v>
+      </c>
+    </row>
+    <row r="594" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D594" s="2">
+        <v>44751</v>
+      </c>
+      <c r="E594">
+        <v>1.326169172128739</v>
+      </c>
+    </row>
+    <row r="595" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D595" s="2">
+        <v>44752</v>
+      </c>
+      <c r="E595">
+        <v>1.2959945456296429</v>
+      </c>
+    </row>
+    <row r="596" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D596" s="2">
+        <v>44753</v>
+      </c>
+      <c r="E596">
+        <v>1.2685993031207421</v>
+      </c>
+    </row>
+    <row r="597" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D597" s="2">
+        <v>44754</v>
+      </c>
+      <c r="E597">
+        <v>1.243698788684783</v>
+      </c>
+    </row>
+    <row r="598" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D598" s="2">
+        <v>44755</v>
+      </c>
+      <c r="E598">
+        <v>1.2210505834634751</v>
+      </c>
+    </row>
+    <row r="599" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D599" s="2">
+        <v>44756</v>
+      </c>
+      <c r="E599">
+        <v>1.2003106803775221</v>
+      </c>
+    </row>
+    <row r="600" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D600" s="2">
+        <v>44757</v>
+      </c>
+      <c r="E600">
+        <v>1.181126200502058</v>
+      </c>
+    </row>
+    <row r="601" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D601" s="2">
+        <v>44758</v>
+      </c>
+      <c r="E601">
+        <v>1.1631897881741391</v>
+      </c>
+    </row>
+    <row r="602" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D602" s="2">
+        <v>44759</v>
+      </c>
+      <c r="E602">
+        <v>1.14627712987068</v>
+      </c>
+    </row>
+    <row r="603" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D603" s="2">
+        <v>44760</v>
+      </c>
+      <c r="E603">
+        <v>1.1303137073726179</v>
+      </c>
+    </row>
+    <row r="604" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D604" s="2">
+        <v>44761</v>
+      </c>
+      <c r="E604">
+        <v>1.115497502928098</v>
+      </c>
+    </row>
+    <row r="605" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D605" s="2">
+        <v>44762</v>
+      </c>
+      <c r="E605">
+        <v>1.102449842546037</v>
+      </c>
+    </row>
+    <row r="606" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D606" s="2">
+        <v>44763</v>
+      </c>
+      <c r="E606">
+        <v>1.0920281629126951</v>
+      </c>
+    </row>
+    <row r="607" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D607" s="2">
+        <v>44764</v>
+      </c>
+      <c r="E607">
+        <v>1.084895142727917</v>
+      </c>
+    </row>
+    <row r="608" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D608" s="2">
+        <v>44765</v>
+      </c>
+      <c r="E608">
+        <v>1.081122414962733</v>
+      </c>
+    </row>
+    <row r="609" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D609" s="2">
+        <v>44766</v>
+      </c>
+      <c r="E609">
+        <v>1.080276237332193</v>
+      </c>
+    </row>
+    <row r="610" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D610" s="2">
+        <v>44767</v>
+      </c>
+      <c r="E610">
+        <v>1.0817437802008181</v>
+      </c>
+    </row>
+    <row r="611" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D611" s="2">
+        <v>44768</v>
+      </c>
+      <c r="E611">
+        <v>1.084881211141639</v>
+      </c>
+    </row>
+    <row r="612" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D612" s="2">
+        <v>44769</v>
+      </c>
+      <c r="E612">
+        <v>1.089068361164274</v>
+      </c>
+    </row>
+    <row r="613" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D613" s="2">
+        <v>44770</v>
+      </c>
+      <c r="E613">
+        <v>1.0937451907036251</v>
+      </c>
+    </row>
+    <row r="614" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D614" s="2">
+        <v>44771</v>
+      </c>
+      <c r="E614">
+        <v>1.098497973540369</v>
+      </c>
+    </row>
+    <row r="615" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D615" s="2">
+        <v>44772</v>
+      </c>
+      <c r="E615">
+        <v>1.1032079870131319</v>
+      </c>
+    </row>
+    <row r="616" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D616" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E616">
+        <v>1.107887006577625</v>
+      </c>
+    </row>
+    <row r="617" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D617" s="2">
+        <v>44774</v>
+      </c>
+      <c r="E617">
+        <v>1.1124017673968969</v>
+      </c>
+    </row>
+    <row r="618" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D618" s="2">
+        <v>44775</v>
+      </c>
+      <c r="E618">
+        <v>1.116481092972244</v>
+      </c>
+    </row>
+    <row r="619" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D619" s="2">
+        <v>44776</v>
+      </c>
+      <c r="E619">
+        <v>1.1199805318936691</v>
+      </c>
+    </row>
+    <row r="620" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D620" s="2">
+        <v>44777</v>
+      </c>
+      <c r="E620">
+        <v>1.1230893266067441</v>
+      </c>
+    </row>
+    <row r="621" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D621" s="2">
+        <v>44778</v>
+      </c>
+      <c r="E621">
+        <v>1.1260923981562549</v>
+      </c>
+    </row>
+    <row r="622" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D622" s="2">
+        <v>44779</v>
+      </c>
+      <c r="E622">
+        <v>1.1291901388195771</v>
+      </c>
+    </row>
+    <row r="623" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D623" s="2">
+        <v>44780</v>
+      </c>
+      <c r="E623">
+        <v>1.1324422611139999</v>
+      </c>
+    </row>
+    <row r="624" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D624" s="2">
+        <v>44781</v>
+      </c>
+      <c r="E624">
+        <v>1.135763153788345</v>
+      </c>
+    </row>
+    <row r="625" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D625" s="2">
+        <v>44782</v>
+      </c>
+      <c r="E625">
+        <v>1.1388983645045221</v>
+      </c>
+    </row>
+    <row r="626" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D626" s="2">
+        <v>44783</v>
+      </c>
+      <c r="E626">
+        <v>1.141323031351126</v>
+      </c>
+    </row>
+    <row r="627" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D627" s="2">
+        <v>44784</v>
+      </c>
+      <c r="E627">
+        <v>1.1422459488838199</v>
+      </c>
+    </row>
+    <row r="628" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D628" s="2">
+        <v>44785</v>
+      </c>
+      <c r="E628">
+        <v>1.1409962381251531</v>
+      </c>
+    </row>
+    <row r="629" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D629" s="2">
+        <v>44786</v>
+      </c>
+      <c r="E629">
+        <v>1.1373384970687721</v>
+      </c>
+    </row>
+    <row r="630" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D630" s="2">
+        <v>44787</v>
+      </c>
+      <c r="E630">
+        <v>1.1317245793781039</v>
+      </c>
+    </row>
+    <row r="631" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D631" s="2">
+        <v>44788</v>
+      </c>
+      <c r="E631">
+        <v>1.1252934904474301</v>
+      </c>
+    </row>
+    <row r="632" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D632" s="2">
+        <v>44789</v>
+      </c>
+      <c r="E632">
+        <v>1.1191350121678729</v>
+      </c>
+    </row>
+    <row r="633" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D633" s="2">
+        <v>44790</v>
+      </c>
+      <c r="E633">
+        <v>1.113836763755778</v>
+      </c>
+    </row>
+    <row r="634" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D634" s="2">
+        <v>44791</v>
+      </c>
+      <c r="E634">
+        <v>1.109427310658482</v>
+      </c>
+    </row>
+    <row r="635" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D635" s="2">
+        <v>44792</v>
+      </c>
+      <c r="E635">
+        <v>1.1055209713630081</v>
+      </c>
+    </row>
+    <row r="636" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D636" s="2">
+        <v>44793</v>
+      </c>
+      <c r="E636">
+        <v>1.1015115989731361</v>
+      </c>
+    </row>
+    <row r="637" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D637" s="2">
+        <v>44794</v>
+      </c>
+      <c r="E637">
+        <v>1.0966298645607579</v>
+      </c>
+    </row>
+    <row r="638" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D638" s="2">
+        <v>44795</v>
+      </c>
+      <c r="E638">
+        <v>1.0900043812108859</v>
+      </c>
+    </row>
+    <row r="639" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D639" s="2">
+        <v>44796</v>
+      </c>
+      <c r="E639">
+        <v>1.081203205146702</v>
+      </c>
+    </row>
+    <row r="640" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D640" s="2">
+        <v>44797</v>
+      </c>
+      <c r="E640">
+        <v>1.0704284503628949</v>
+      </c>
+    </row>
+    <row r="641" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D641" s="2">
+        <v>44798</v>
+      </c>
+      <c r="E641">
+        <v>1.058151520995678</v>
+      </c>
+    </row>
+    <row r="642" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D642" s="2">
+        <v>44799</v>
+      </c>
+      <c r="E642">
+        <v>1.0445551428348201</v>
+      </c>
+    </row>
+    <row r="643" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D643" s="2">
+        <v>44800</v>
+      </c>
+      <c r="E643">
+        <v>1.0297658082495249</v>
+      </c>
+    </row>
+    <row r="644" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D644" s="2">
+        <v>44801</v>
+      </c>
+      <c r="E644">
+        <v>1.0140516638427921</v>
+      </c>
+    </row>
+    <row r="645" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D645" s="2">
+        <v>44802</v>
+      </c>
+      <c r="E645">
+        <v>0.99783758965364666</v>
+      </c>
+    </row>
+    <row r="646" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D646" s="2">
+        <v>44803</v>
+      </c>
+      <c r="E646">
+        <v>0.98164140743118378</v>
+      </c>
+    </row>
+    <row r="647" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D647" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E647">
+        <v>0.96604634861110794</v>
+      </c>
+    </row>
+    <row r="648" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D648" s="2">
+        <v>44805</v>
+      </c>
+      <c r="E648">
+        <v>0.95190645902746562</v>
+      </c>
+    </row>
+    <row r="649" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D649" s="2">
+        <v>44806</v>
+      </c>
+      <c r="E649">
+        <v>0.94063522339151184</v>
+      </c>
+    </row>
+    <row r="650" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D650" s="2">
+        <v>44807</v>
+      </c>
+      <c r="E650">
+        <v>0.93368395292329609</v>
+      </c>
+    </row>
+    <row r="651" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D651" s="2">
+        <v>44808</v>
+      </c>
+      <c r="E651">
+        <v>0.93195837888087862</v>
+      </c>
+    </row>
+    <row r="652" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D652" s="2">
+        <v>44809</v>
+      </c>
+      <c r="E652">
+        <v>0.93567337381651339</v>
+      </c>
+    </row>
+    <row r="653" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D653" s="2">
+        <v>44810</v>
+      </c>
+      <c r="E653">
+        <v>0.94506716391637469</v>
+      </c>
+    </row>
+    <row r="654" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D654" s="2">
+        <v>44811</v>
+      </c>
+      <c r="E654">
+        <v>0.96021564959526762</v>
+      </c>
+    </row>
+    <row r="655" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D655" s="2">
+        <v>44812</v>
+      </c>
+      <c r="E655">
+        <v>0.98067294857089649</v>
+      </c>
+    </row>
+    <row r="656" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D656" s="2">
+        <v>44813</v>
+      </c>
+      <c r="E656">
+        <v>1.0052811927509759</v>
+      </c>
+    </row>
+    <row r="657" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D657" s="2">
+        <v>44814</v>
+      </c>
+      <c r="E657">
+        <v>1.0322213027866169</v>
+      </c>
+    </row>
+    <row r="658" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D658" s="2">
+        <v>44815</v>
+      </c>
+      <c r="E658">
+        <v>1.0593487691474459</v>
+      </c>
+    </row>
+    <row r="659" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D659" s="2">
+        <v>44816</v>
+      </c>
+      <c r="E659">
+        <v>1.0844379163131499</v>
+      </c>
+    </row>
+    <row r="660" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D660" s="2">
+        <v>44817</v>
+      </c>
+      <c r="E660">
+        <v>1.1047953323599771</v>
+      </c>
+    </row>
+    <row r="661" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D661" s="2">
+        <v>44818</v>
+      </c>
+      <c r="E661">
+        <v>1.1180727997738431</v>
+      </c>
+    </row>
+    <row r="662" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D662" s="2">
+        <v>44819</v>
+      </c>
+      <c r="E662">
+        <v>1.1233374458388179</v>
+      </c>
+    </row>
+    <row r="663" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D663" s="2">
+        <v>44820</v>
+      </c>
+      <c r="E663">
+        <v>1.1214393190821961</v>
+      </c>
+    </row>
+    <row r="664" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D664" s="2">
+        <v>44821</v>
+      </c>
+      <c r="E664">
+        <v>1.1141324203222951</v>
+      </c>
+    </row>
+    <row r="665" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D665" s="2">
+        <v>44822</v>
+      </c>
+      <c r="E665">
+        <v>1.10328291298706</v>
+      </c>
+    </row>
+    <row r="666" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D666" s="2">
+        <v>44823</v>
+      </c>
+      <c r="E666">
+        <v>1.090487179484106</v>
+      </c>
+    </row>
+    <row r="667" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D667" s="2">
+        <v>44824</v>
+      </c>
+      <c r="E667">
+        <v>1.076965100501583</v>
+      </c>
+    </row>
+    <row r="668" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D668" s="2">
+        <v>44825</v>
+      </c>
+      <c r="E668">
+        <v>1.0635132868973309</v>
+      </c>
+    </row>
+    <row r="669" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D669" s="2">
+        <v>44826</v>
+      </c>
+      <c r="E669">
+        <v>1.05034963055357</v>
+      </c>
+    </row>
+    <row r="670" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D670" s="2">
+        <v>44827</v>
+      </c>
+      <c r="E670">
+        <v>1.037132155095005</v>
+      </c>
+    </row>
+    <row r="671" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D671" s="2">
+        <v>44828</v>
+      </c>
+      <c r="E671">
+        <v>1.0236127218434861</v>
+      </c>
+    </row>
+    <row r="672" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D672" s="2">
+        <v>44829</v>
+      </c>
+      <c r="E672">
+        <v>1.0099454923857669</v>
+      </c>
+    </row>
+    <row r="673" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D673" s="2">
+        <v>44830</v>
+      </c>
+      <c r="E673">
+        <v>0.99646336870128094</v>
+      </c>
+    </row>
+    <row r="674" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D674" s="2">
+        <v>44831</v>
+      </c>
+      <c r="E674">
+        <v>0.98329729817534506</v>
+      </c>
+    </row>
+    <row r="675" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D675" s="2">
+        <v>44832</v>
+      </c>
+      <c r="E675">
+        <v>0.97044645350767078</v>
+      </c>
+    </row>
+    <row r="676" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D676" s="2">
+        <v>44833</v>
+      </c>
+      <c r="E676">
+        <v>0.95787866642766795</v>
+      </c>
+    </row>
+    <row r="677" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D677" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E677">
+        <v>0.94553662014972906</v>
+      </c>
+    </row>
+    <row r="678" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D678" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E678">
+        <v>0.93333732892033039</v>
+      </c>
+    </row>
+    <row r="679" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D679" s="2">
+        <v>44836</v>
+      </c>
+      <c r="E679">
+        <v>0.92126998700371565</v>
+      </c>
+    </row>
+    <row r="680" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D680" s="2">
+        <v>44837</v>
+      </c>
+      <c r="E680">
+        <v>0.90967989240545954</v>
+      </c>
+    </row>
+    <row r="681" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D681" s="2">
+        <v>44838</v>
+      </c>
+      <c r="E681">
+        <v>0.89951459272281309</v>
+      </c>
+    </row>
+    <row r="682" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D682" s="2">
+        <v>44839</v>
+      </c>
+      <c r="E682">
+        <v>0.89197420928052462</v>
+      </c>
+    </row>
+    <row r="683" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D683" s="2">
+        <v>44840</v>
+      </c>
+      <c r="E683">
+        <v>0.8879962944773987</v>
+      </c>
+    </row>
+    <row r="684" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D684" s="2">
+        <v>44841</v>
+      </c>
+      <c r="E684">
+        <v>0.88800880298698992</v>
+      </c>
+    </row>
+    <row r="685" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D685" s="2">
+        <v>44842</v>
+      </c>
+      <c r="E685">
+        <v>0.89243042971640774</v>
+      </c>
+    </row>
+    <row r="686" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D686" s="2">
+        <v>44843</v>
+      </c>
+      <c r="E686">
+        <v>0.90148043846537773</v>
+      </c>
+    </row>
+    <row r="687" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D687" s="2">
+        <v>44844</v>
+      </c>
+      <c r="E687">
+        <v>0.91487168019121123</v>
+      </c>
+    </row>
+    <row r="688" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D688" s="2">
+        <v>44845</v>
+      </c>
+      <c r="E688">
+        <v>0.9316941978645864</v>
+      </c>
+    </row>
+    <row r="689" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D689" s="2">
+        <v>44846</v>
+      </c>
+      <c r="E689">
+        <v>0.95051204346413254</v>
+      </c>
+    </row>
+    <row r="690" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D690" s="2">
+        <v>44847</v>
+      </c>
+      <c r="E690">
+        <v>0.96967508642592759</v>
+      </c>
+    </row>
+    <row r="691" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D691" s="2">
+        <v>44848</v>
+      </c>
+      <c r="E691">
+        <v>0.98755375947876534</v>
+      </c>
+    </row>
+    <row r="692" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D692" s="2">
+        <v>44849</v>
+      </c>
+      <c r="E692">
+        <v>1.0020890375477129</v>
+      </c>
+    </row>
+    <row r="693" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D693" s="2">
+        <v>44850</v>
+      </c>
+      <c r="E693">
+        <v>1.0113070426833539</v>
+      </c>
+    </row>
+    <row r="694" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D694" s="2">
+        <v>44851</v>
+      </c>
+      <c r="E694">
+        <v>1.0140834350339989</v>
+      </c>
+    </row>
+    <row r="695" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D695" s="2">
+        <v>44852</v>
+      </c>
+      <c r="E695">
+        <v>1.0104674073316049</v>
+      </c>
+    </row>
+    <row r="696" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D696" s="2">
+        <v>44853</v>
+      </c>
+      <c r="E696">
+        <v>1.0008669408727711</v>
+      </c>
+    </row>
+    <row r="697" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D697" s="2">
+        <v>44854</v>
+      </c>
+      <c r="E697">
+        <v>0.98590779646822246</v>
+      </c>
+    </row>
+    <row r="698" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D698" s="2">
+        <v>44855</v>
+      </c>
+      <c r="E698">
+        <v>0.96651159289686084</v>
+      </c>
+    </row>
+    <row r="699" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D699" s="2">
+        <v>44856</v>
+      </c>
+      <c r="E699">
+        <v>0.94386892375389575</v>
+      </c>
+    </row>
+    <row r="700" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D700" s="2">
+        <v>44857</v>
+      </c>
+      <c r="E700">
+        <v>0.9192942415053208</v>
+      </c>
+    </row>
+    <row r="701" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D701" s="2">
+        <v>44858</v>
+      </c>
+      <c r="E701">
+        <v>0.89396162503589072</v>
+      </c>
+    </row>
+    <row r="702" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D702" s="2">
+        <v>44859</v>
+      </c>
+      <c r="E702">
+        <v>0.86877647195698682</v>
+      </c>
+    </row>
+    <row r="703" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D703" s="2">
+        <v>44860</v>
+      </c>
+      <c r="E703">
+        <v>0.84511982691830456</v>
+      </c>
+    </row>
+    <row r="704" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D704" s="2">
+        <v>44861</v>
+      </c>
+      <c r="E704">
+        <v>0.82473230705890788</v>
+      </c>
+    </row>
+    <row r="705" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D705" s="2">
+        <v>44862</v>
+      </c>
+      <c r="E705">
+        <v>0.80912432489376152</v>
+      </c>
+    </row>
+    <row r="706" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D706" s="2">
+        <v>44863</v>
+      </c>
+      <c r="E706">
+        <v>0.7990076956179456</v>
+      </c>
+    </row>
+    <row r="707" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D707" s="2">
+        <v>44864</v>
+      </c>
+      <c r="E707">
+        <v>0.79479448640700379</v>
+      </c>
+    </row>
+    <row r="708" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D708" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E708">
+        <v>0.79667829701681081</v>
+      </c>
+    </row>
+    <row r="709" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D709" s="2">
+        <v>44866</v>
+      </c>
+      <c r="E709">
+        <v>0.80442133140996974</v>
+      </c>
+    </row>
+    <row r="710" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D710" s="2">
+        <v>44867</v>
+      </c>
+      <c r="E710">
+        <v>0.81717421717933825</v>
+      </c>
+    </row>
+    <row r="711" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D711" s="2">
+        <v>44868</v>
+      </c>
+      <c r="E711">
+        <v>0.83349002022728447</v>
+      </c>
+    </row>
+    <row r="712" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D712" s="2">
+        <v>44869</v>
+      </c>
+      <c r="E712">
+        <v>0.8517344978452609</v>
+      </c>
+    </row>
+    <row r="713" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D713" s="2">
+        <v>44870</v>
+      </c>
+      <c r="E713">
+        <v>0.87067589860368499</v>
+      </c>
+    </row>
+    <row r="714" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D714" s="2">
+        <v>44871</v>
+      </c>
+      <c r="E714">
+        <v>0.8887362776115334</v>
+      </c>
+    </row>
+    <row r="715" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D715" s="2">
+        <v>44872</v>
+      </c>
+      <c r="E715">
+        <v>0.90392240481988095</v>
+      </c>
+    </row>
+    <row r="716" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D716" s="2">
+        <v>44873</v>
+      </c>
+      <c r="E716">
+        <v>0.91445621776719266</v>
+      </c>
+    </row>
+    <row r="717" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D717" s="2">
+        <v>44874</v>
+      </c>
+      <c r="E717">
+        <v>0.91937165324562442</v>
+      </c>
+    </row>
+    <row r="718" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D718" s="2">
+        <v>44875</v>
+      </c>
+      <c r="E718">
+        <v>0.91787974028195696</v>
+      </c>
+    </row>
+    <row r="719" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D719" s="2">
+        <v>44876</v>
+      </c>
+      <c r="E719">
+        <v>0.90962579804184152</v>
+      </c>
+    </row>
+    <row r="720" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D720" s="2">
+        <v>44877</v>
+      </c>
+      <c r="E720">
+        <v>0.89507948849627983</v>
+      </c>
+    </row>
+    <row r="721" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D721" s="2">
+        <v>44878</v>
+      </c>
+      <c r="E721">
+        <v>0.87559525594890852</v>
+      </c>
+    </row>
+    <row r="722" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D722" s="2">
+        <v>44879</v>
+      </c>
+      <c r="E722">
+        <v>0.85314401150814756</v>
+      </c>
+    </row>
+    <row r="723" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D723" s="2">
+        <v>44880</v>
+      </c>
+      <c r="E723">
+        <v>0.82970736782031185</v>
+      </c>
+    </row>
+    <row r="724" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D724" s="2">
+        <v>44881</v>
+      </c>
+      <c r="E724">
+        <v>0.80677400601677107</v>
+      </c>
+    </row>
+    <row r="725" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D725" s="2">
+        <v>44882</v>
+      </c>
+      <c r="E725">
+        <v>0.78620862402425939</v>
+      </c>
+    </row>
+    <row r="726" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D726" s="2">
+        <v>44883</v>
+      </c>
+      <c r="E726">
+        <v>0.76997536275895795</v>
+      </c>
+    </row>
+    <row r="727" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D727" s="2">
+        <v>44884</v>
+      </c>
+      <c r="E727">
+        <v>0.75946199290621752</v>
+      </c>
+    </row>
+    <row r="728" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D728" s="2">
+        <v>44885</v>
+      </c>
+      <c r="E728">
+        <v>0.7552657602966002</v>
+      </c>
+    </row>
+    <row r="729" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D729" s="2">
+        <v>44886</v>
+      </c>
+      <c r="E729">
+        <v>0.75767194872775523</v>
+      </c>
+    </row>
+    <row r="730" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D730" s="2">
+        <v>44887</v>
+      </c>
+      <c r="E730">
+        <v>0.76680731403269453</v>
+      </c>
+    </row>
+    <row r="731" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D731" s="2">
+        <v>44888</v>
+      </c>
+      <c r="E731">
+        <v>0.78262953222525511</v>
+      </c>
+    </row>
+    <row r="732" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D732" s="2">
+        <v>44889</v>
+      </c>
+      <c r="E732">
+        <v>0.80482525370104341</v>
+      </c>
+    </row>
+    <row r="733" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D733" s="2">
+        <v>44890</v>
+      </c>
+      <c r="E733">
+        <v>0.83271249433511907</v>
+      </c>
+    </row>
+    <row r="734" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D734" s="2">
+        <v>44891</v>
+      </c>
+      <c r="E734">
+        <v>0.86528960463667692</v>
+      </c>
+    </row>
+    <row r="735" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D735" s="2">
+        <v>44892</v>
+      </c>
+      <c r="E735">
+        <v>0.90098260222476989</v>
+      </c>
+    </row>
+    <row r="736" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D736" s="2">
+        <v>44893</v>
+      </c>
+      <c r="E736">
+        <v>0.93689013811660826</v>
+      </c>
+    </row>
+    <row r="737" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D737" s="2">
+        <v>44894</v>
+      </c>
+      <c r="E737">
+        <v>0.96930819461345852</v>
+      </c>
+    </row>
+    <row r="738" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D738" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E738">
+        <v>0.9953412287151574</v>
+      </c>
+    </row>
+    <row r="739" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D739" s="2">
+        <v>44896</v>
+      </c>
+      <c r="E739">
+        <v>1.013516780305292</v>
+      </c>
+    </row>
+    <row r="740" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D740" s="2">
+        <v>44897</v>
+      </c>
+      <c r="E740">
+        <v>1.0235375705030281</v>
+      </c>
+    </row>
+    <row r="741" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D741" s="2">
+        <v>44898</v>
+      </c>
+      <c r="E741">
+        <v>1.026364357805404</v>
+      </c>
+    </row>
+    <row r="742" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D742" s="2">
+        <v>44899</v>
+      </c>
+      <c r="E742">
+        <v>1.024054092704106</v>
+      </c>
+    </row>
+    <row r="743" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D743" s="2">
+        <v>44900</v>
+      </c>
+      <c r="E743">
+        <v>1.0192966696601731</v>
+      </c>
+    </row>
+    <row r="744" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D744" s="2">
+        <v>44901</v>
+      </c>
+      <c r="E744">
+        <v>1.014588544666345</v>
+      </c>
+    </row>
+    <row r="745" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D745" s="2">
+        <v>44902</v>
+      </c>
+      <c r="E745">
+        <v>1.0110564067520369</v>
+      </c>
+    </row>
+    <row r="746" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D746" s="2">
+        <v>44903</v>
+      </c>
+      <c r="E746">
+        <v>1.008636519205917</v>
+      </c>
+    </row>
+    <row r="747" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D747" s="2">
+        <v>44904</v>
+      </c>
+      <c r="E747">
+        <v>1.006967242124359</v>
+      </c>
+    </row>
+    <row r="748" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D748" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E748">
+        <v>1.005673348763847</v>
+      </c>
+    </row>
+    <row r="749" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D749" s="2">
+        <v>44906</v>
+      </c>
+      <c r="E749">
+        <v>1.004555644891177</v>
+      </c>
+    </row>
+    <row r="750" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D750" s="2">
+        <v>44907</v>
+      </c>
+      <c r="E750">
+        <v>1.003605757040926</v>
+      </c>
+    </row>
+    <row r="751" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D751" s="2">
+        <v>44908</v>
+      </c>
+      <c r="E751">
+        <v>1.0029484599657601</v>
+      </c>
+    </row>
+    <row r="752" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D752" s="2">
+        <v>44909</v>
+      </c>
+      <c r="E752">
+        <v>1.002790993407864</v>
+      </c>
+    </row>
+    <row r="753" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D753" s="2">
+        <v>44910</v>
+      </c>
+      <c r="E753">
+        <v>1.003357393319789</v>
+      </c>
+    </row>
+    <row r="754" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D754" s="2">
+        <v>44911</v>
+      </c>
+      <c r="E754">
+        <v>1.0048062367772601</v>
+      </c>
+    </row>
+    <row r="755" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D755" s="2">
+        <v>44912</v>
+      </c>
+      <c r="E755">
+        <v>1.0071221566083439</v>
+      </c>
+    </row>
+    <row r="756" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D756" s="2">
+        <v>44913</v>
+      </c>
+      <c r="E756">
+        <v>1.0100116011702629</v>
+      </c>
+    </row>
+    <row r="757" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D757" s="2">
+        <v>44914</v>
+      </c>
+      <c r="E757">
+        <v>1.012968143857309</v>
+      </c>
+    </row>
+    <row r="758" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D758" s="2">
+        <v>44915</v>
+      </c>
+      <c r="E758">
+        <v>1.0154343589516051</v>
+      </c>
+    </row>
+    <row r="759" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D759" s="2">
+        <v>44916</v>
+      </c>
+      <c r="E759">
+        <v>1.0169824825279461</v>
+      </c>
+    </row>
+    <row r="760" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D760" s="2">
+        <v>44917</v>
+      </c>
+      <c r="E760">
+        <v>1.0172640520083309</v>
+      </c>
+    </row>
+    <row r="761" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D761" s="2">
+        <v>44918</v>
+      </c>
+      <c r="E761">
+        <v>1.0155064416763659</v>
+      </c>
+    </row>
+    <row r="762" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D762" s="2">
+        <v>44919</v>
+      </c>
+      <c r="E762">
+        <v>1.01108304212935</v>
+      </c>
+    </row>
+    <row r="763" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D763" s="2">
+        <v>44920</v>
+      </c>
+      <c r="E763">
+        <v>1.0040088974131229</v>
+      </c>
+    </row>
+    <row r="764" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D764" s="2">
+        <v>44921</v>
+      </c>
+      <c r="E764">
+        <v>0.99501739966645053</v>
+      </c>
+    </row>
+    <row r="765" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D765" s="2">
+        <v>44922</v>
+      </c>
+      <c r="E765">
+        <v>0.98534609018719266</v>
+      </c>
+    </row>
+    <row r="766" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D766" s="2">
+        <v>44923</v>
+      </c>
+      <c r="E766">
+        <v>0.9763652361030839</v>
+      </c>
+    </row>
+    <row r="767" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D767" s="2">
+        <v>44924</v>
+      </c>
+      <c r="E767">
+        <v>0.96941314615754381</v>
+      </c>
+    </row>
+    <row r="768" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D768" s="2">
+        <v>44925</v>
+      </c>
+      <c r="E768">
+        <v>0.96615729294900954</v>
+      </c>
+    </row>
+    <row r="769" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D769" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E769">
+        <v>0.96794596125770327</v>
+      </c>
+    </row>
+    <row r="770" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D770" s="2">
+        <v>44927</v>
+      </c>
+      <c r="E770">
+        <v>0.97525113593380397</v>
+      </c>
+    </row>
+    <row r="771" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D771" s="2">
+        <v>44928</v>
+      </c>
+      <c r="E771">
+        <v>0.98732080901782304</v>
+      </c>
+    </row>
+    <row r="772" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D772" s="2">
+        <v>44929</v>
+      </c>
+      <c r="E772">
+        <v>1.002036320653227</v>
+      </c>
+    </row>
+    <row r="773" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D773" s="2">
+        <v>44930</v>
+      </c>
+      <c r="E773">
+        <v>1.017247457981765</v>
+      </c>
+    </row>
+    <row r="774" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D774" s="2">
+        <v>44931</v>
+      </c>
+      <c r="E774">
+        <v>1.031812779956117</v>
+      </c>
+    </row>
+    <row r="775" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D775" s="2">
+        <v>44932</v>
+      </c>
+      <c r="E775">
+        <v>1.0458592272897651</v>
+      </c>
+    </row>
+    <row r="776" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D776" s="2">
+        <v>44933</v>
+      </c>
+      <c r="E776">
+        <v>1.0604504437340709</v>
+      </c>
+    </row>
+    <row r="777" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D777" s="2">
+        <v>44934</v>
+      </c>
+      <c r="E777">
+        <v>1.076913648565452</v>
+      </c>
+    </row>
+    <row r="778" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D778" s="2">
+        <v>44935</v>
+      </c>
+      <c r="E778">
+        <v>1.0963737785443579</v>
+      </c>
+    </row>
+    <row r="779" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D779" s="2">
+        <v>44936</v>
+      </c>
+      <c r="E779">
+        <v>1.119618528297653</v>
+      </c>
+    </row>
+    <row r="780" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D780" s="2">
+        <v>44937</v>
+      </c>
+      <c r="E780">
+        <v>1.1460875740698859</v>
+      </c>
+    </row>
+    <row r="781" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D781" s="2">
+        <v>44938</v>
+      </c>
+      <c r="E781">
+        <v>1.173828002211152</v>
+      </c>
+    </row>
+    <row r="782" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D782" s="2">
+        <v>44939</v>
+      </c>
+      <c r="E782">
+        <v>1.2006961994077969</v>
+      </c>
+    </row>
+    <row r="783" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D783" s="2">
+        <v>44940</v>
+      </c>
+      <c r="E783">
+        <v>1.225309504149928</v>
+      </c>
+    </row>
+    <row r="784" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D784" s="2">
+        <v>44941</v>
+      </c>
+      <c r="E784">
+        <v>1.2469907359094721</v>
+      </c>
+    </row>
+    <row r="785" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D785" s="2">
+        <v>44942</v>
+      </c>
+      <c r="E785">
+        <v>1.265594459228554</v>
+      </c>
+    </row>
+    <row r="786" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D786" s="2">
+        <v>44943</v>
+      </c>
+      <c r="E786">
+        <v>1.2813121307462529</v>
+      </c>
+    </row>
+    <row r="787" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D787" s="2">
+        <v>44944</v>
+      </c>
+      <c r="E787">
+        <v>1.294405212877177</v>
+      </c>
+    </row>
+    <row r="788" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D788" s="2">
+        <v>44945</v>
+      </c>
+      <c r="E788">
+        <v>1.304794483180947</v>
+      </c>
+    </row>
+    <row r="789" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D789" s="2">
+        <v>44946</v>
+      </c>
+      <c r="E789">
+        <v>1.311560798313993</v>
+      </c>
+    </row>
+    <row r="790" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D790" s="2">
+        <v>44947</v>
+      </c>
+      <c r="E790">
+        <v>1.313152117972346</v>
+      </c>
+    </row>
+    <row r="791" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D791" s="2">
+        <v>44948</v>
+      </c>
+      <c r="E791">
+        <v>1.308401509684906</v>
+      </c>
+    </row>
+    <row r="792" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D792" s="2">
+        <v>44949</v>
+      </c>
+      <c r="E792">
+        <v>1.2973637229193189</v>
+      </c>
+    </row>
+    <row r="793" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D793" s="2">
+        <v>44950</v>
+      </c>
+      <c r="E793">
+        <v>1.281519293605875</v>
+      </c>
+    </row>
+    <row r="794" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D794" s="2">
+        <v>44951</v>
+      </c>
+      <c r="E794">
+        <v>1.2628533886885009</v>
+      </c>
+    </row>
+    <row r="795" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D795" s="2">
+        <v>44952</v>
+      </c>
+      <c r="E795">
+        <v>1.2430859695587551</v>
+      </c>
+    </row>
+    <row r="796" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D796" s="2">
+        <v>44953</v>
+      </c>
+      <c r="E796">
+        <v>1.2234369411487449</v>
+      </c>
+    </row>
+    <row r="797" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D797" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E797">
+        <v>1.2046791746734109</v>
+      </c>
+    </row>
+    <row r="798" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D798" s="2">
+        <v>44955</v>
+      </c>
+      <c r="E798">
+        <v>1.1872276738711649</v>
+      </c>
+    </row>
+    <row r="799" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D799" s="2">
+        <v>44956</v>
+      </c>
+      <c r="E799">
+        <v>1.171111462600553</v>
+      </c>
+    </row>
+    <row r="800" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D800" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E800">
+        <v>1.155950037018074</v>
+      </c>
+    </row>
+    <row r="801" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D801" s="2">
+        <v>44958</v>
+      </c>
+      <c r="E801">
+        <v>1.1414321726749119</v>
+      </c>
+    </row>
+    <row r="802" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D802" s="2">
+        <v>44959</v>
+      </c>
+      <c r="E802">
+        <v>1.1275933151118169</v>
+      </c>
+    </row>
+    <row r="803" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D803" s="2">
+        <v>44960</v>
+      </c>
+      <c r="E803">
+        <v>1.1146686178950449</v>
+      </c>
+    </row>
+    <row r="804" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D804" s="2">
+        <v>44961</v>
+      </c>
+      <c r="E804">
+        <v>1.1031255758462351</v>
+      </c>
+    </row>
+    <row r="805" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D805" s="2">
+        <v>44962</v>
+      </c>
+      <c r="E805">
+        <v>1.0934626940958201</v>
+      </c>
+    </row>
+    <row r="806" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D806" s="2">
+        <v>44963</v>
+      </c>
+      <c r="E806">
+        <v>1.085787674577402</v>
+      </c>
+    </row>
+    <row r="807" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D807" s="2">
+        <v>44964</v>
+      </c>
+      <c r="E807">
+        <v>1.079692580788135</v>
+      </c>
+    </row>
+    <row r="808" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D808" s="2">
+        <v>44965</v>
+      </c>
+      <c r="E808">
+        <v>1.0743803053301071</v>
+      </c>
+    </row>
+    <row r="809" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D809" s="2">
+        <v>44966</v>
+      </c>
+      <c r="E809">
+        <v>1.068965945143372</v>
+      </c>
+    </row>
+    <row r="810" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D810" s="2">
+        <v>44967</v>
+      </c>
+      <c r="E810">
+        <v>1.0628699303614539</v>
+      </c>
+    </row>
+    <row r="811" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D811" s="2">
+        <v>44968</v>
+      </c>
+      <c r="E811">
+        <v>1.055799555436556</v>
+      </c>
+    </row>
+    <row r="812" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D812" s="2">
+        <v>44969</v>
+      </c>
+      <c r="E812">
+        <v>1.0477420597429019</v>
+      </c>
+    </row>
+    <row r="813" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D813" s="2">
+        <v>44970</v>
+      </c>
+      <c r="E813">
+        <v>1.039016920265216</v>
+      </c>
+    </row>
+    <row r="814" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D814" s="2">
+        <v>44971</v>
+      </c>
+      <c r="E814">
+        <v>1.0300764796483111</v>
+      </c>
+    </row>
+    <row r="815" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D815" s="2">
+        <v>44972</v>
+      </c>
+      <c r="E815">
+        <v>1.021518998631991</v>
+      </c>
+    </row>
+    <row r="816" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D816" s="2">
+        <v>44973</v>
+      </c>
+      <c r="E816">
+        <v>1.013840576859532</v>
+      </c>
+    </row>
+    <row r="817" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D817" s="2">
+        <v>44974</v>
+      </c>
+      <c r="E817">
+        <v>1.0071741157631069</v>
+      </c>
+    </row>
+    <row r="818" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D818" s="2">
+        <v>44975</v>
+      </c>
+      <c r="E818">
+        <v>1.0012261049828011</v>
+      </c>
+    </row>
+    <row r="819" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D819" s="2">
+        <v>44976</v>
+      </c>
+      <c r="E819">
+        <v>0.99539339328181142</v>
+      </c>
+    </row>
+    <row r="820" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D820" s="2">
+        <v>44977</v>
+      </c>
+      <c r="E820">
+        <v>0.98905034873500575</v>
+      </c>
+    </row>
+    <row r="821" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D821" s="2">
+        <v>44978</v>
+      </c>
+      <c r="E821">
+        <v>0.98189868454258455</v>
+      </c>
+    </row>
+    <row r="822" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D822" s="2">
+        <v>44979</v>
+      </c>
+      <c r="E822">
+        <v>0.9739116221181503</v>
+      </c>
+    </row>
+    <row r="823" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D823" s="2">
+        <v>44980</v>
+      </c>
+      <c r="E823">
+        <v>0.96536646616860211</v>
+      </c>
+    </row>
+    <row r="824" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D824" s="2">
+        <v>44981</v>
+      </c>
+      <c r="E824">
+        <v>0.95675113718752736</v>
+      </c>
+    </row>
+    <row r="825" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D825" s="2">
+        <v>44982</v>
+      </c>
+      <c r="E825">
+        <v>0.9484192220261507</v>
+      </c>
+    </row>
+    <row r="826" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D826" s="2">
+        <v>44983</v>
+      </c>
+      <c r="E826">
+        <v>0.940467677886755</v>
+      </c>
+    </row>
+    <row r="827" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D827" s="2">
+        <v>44984</v>
+      </c>
+      <c r="E827">
+        <v>0.93286029151112504</v>
+      </c>
+    </row>
+    <row r="828" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D828" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E828">
+        <v>0.92547336335376251</v>
+      </c>
+    </row>
+    <row r="829" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D829" s="2">
+        <v>44986</v>
+      </c>
+      <c r="E829">
+        <v>0.91810163082807117</v>
+      </c>
+    </row>
+    <row r="830" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D830" s="2">
+        <v>44987</v>
+      </c>
+      <c r="E830">
+        <v>0.91049725924794112</v>
+      </c>
+    </row>
+    <row r="831" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D831" s="2">
+        <v>44988</v>
+      </c>
+      <c r="E831">
+        <v>0.90253213746414629</v>
+      </c>
+    </row>
+    <row r="832" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D832" s="2">
+        <v>44989</v>
+      </c>
+      <c r="E832">
+        <v>0.89451351424251258</v>
+      </c>
+    </row>
+    <row r="833" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D833" s="2">
+        <v>44990</v>
+      </c>
+      <c r="E833">
+        <v>0.88718730539508295</v>
+      </c>
+    </row>
+    <row r="834" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D834" s="2">
+        <v>44991</v>
+      </c>
+      <c r="E834">
+        <v>0.88139776056534125</v>
+      </c>
+    </row>
+    <row r="835" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D835" s="2">
+        <v>44992</v>
+      </c>
+      <c r="E835">
+        <v>0.87776976382013383</v>
+      </c>
+    </row>
+    <row r="836" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D836" s="2">
+        <v>44993</v>
+      </c>
+      <c r="E836">
+        <v>0.87651955588903996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>